--- a/策划案/镇魂街/经济总表.xlsx
+++ b/策划案/镇魂街/经济总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="168">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExHigh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -677,6 +673,18 @@
   </si>
   <si>
     <t>停留时间/h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通第四章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1440,6 +1448,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,38 +1517,29 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1560,15 +1568,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1577,15 +1576,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1939,12 +1929,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1953,10 +1943,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1967,26 +1957,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1995,10 +1985,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2007,138 +1997,138 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2195,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S169"/>
+  <dimension ref="A2:S172"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2212,23 +2202,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="A2" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M3">
@@ -2261,12 +2251,12 @@
       <c r="B5" s="20">
         <v>50</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="I5" s="15" t="s">
         <v>52</v>
       </c>
@@ -2294,10 +2284,10 @@
       <c r="B6" s="20">
         <v>60</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="I6" s="15" t="s">
         <v>53</v>
       </c>
@@ -2305,7 +2295,7 @@
         <v>60</v>
       </c>
       <c r="K6" s="16">
-        <f>挂机关卡!F6*J6</f>
+        <f>挂机关卡!E6*J6</f>
         <v>300</v>
       </c>
       <c r="M6" s="20">
@@ -2328,10 +2318,10 @@
       <c r="B7" s="20">
         <v>75</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
@@ -2362,10 +2352,10 @@
       <c r="B8" s="20">
         <v>85</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="I8" s="15" t="s">
         <v>54</v>
       </c>
@@ -2393,10 +2383,10 @@
       <c r="B9" s="20">
         <v>100</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="M9" s="20">
         <v>2</v>
       </c>
@@ -2417,10 +2407,10 @@
       <c r="B10" s="20">
         <v>125</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="M10" s="20">
         <v>2.5</v>
       </c>
@@ -2441,10 +2431,10 @@
       <c r="B11" s="20">
         <v>150</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="M11" s="20">
         <v>3</v>
       </c>
@@ -2465,10 +2455,10 @@
       <c r="B12" s="20">
         <v>175</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="M12" s="20">
         <v>3.5</v>
       </c>
@@ -2489,10 +2479,10 @@
       <c r="B13" s="20">
         <v>250</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="M13" s="20">
         <v>5</v>
       </c>
@@ -2571,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="20">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>60</v>
@@ -2595,7 +2585,7 @@
       </c>
       <c r="O17" s="20">
         <f>INT($J$22*N17/5)*5</f>
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2603,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="62"/>
@@ -2625,7 +2615,7 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ref="O18:O26" si="3">INT($J$22*N18/5)*5</f>
-        <v>275</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2633,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="20">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="62"/>
@@ -2655,7 +2645,7 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2663,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="20">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="62"/>
@@ -2676,8 +2666,8 @@
         <v>120</v>
       </c>
       <c r="K20" s="16">
-        <f>挂机关卡!F14*J20</f>
-        <v>600</v>
+        <f>挂机关卡!E14*J20</f>
+        <v>1200</v>
       </c>
       <c r="M20" s="20">
         <v>1.3</v>
@@ -2688,7 +2678,7 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2696,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="20">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="62"/>
@@ -2710,7 +2700,7 @@
       </c>
       <c r="K21" s="16">
         <f>J22*J21</f>
-        <v>1103.5714285714287</v>
+        <v>1360.7142857142858</v>
       </c>
       <c r="M21" s="20">
         <v>1.4</v>
@@ -2721,7 +2711,7 @@
       </c>
       <c r="O21" s="20">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2729,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="20">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="62"/>
@@ -2740,7 +2730,7 @@
       </c>
       <c r="J22" s="16">
         <f>(J17+J18+J19+K20)/(1-J21)</f>
-        <v>3678.5714285714289</v>
+        <v>4535.7142857142862</v>
       </c>
       <c r="M22" s="20">
         <v>1.5</v>
@@ -2751,7 +2741,7 @@
       </c>
       <c r="O22" s="20">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2759,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="20">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D23" s="61"/>
       <c r="E23" s="62"/>
@@ -2774,7 +2764,7 @@
       </c>
       <c r="O23" s="20">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2782,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="20">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D24" s="61"/>
       <c r="E24" s="62"/>
@@ -2797,7 +2787,7 @@
       </c>
       <c r="O24" s="20">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2805,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="20">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="62"/>
@@ -2820,7 +2810,7 @@
       </c>
       <c r="O25" s="20">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2828,7 +2818,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="20">
-        <v>985</v>
+        <v>620</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="65"/>
@@ -2843,7 +2833,7 @@
       </c>
       <c r="O26" s="20">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2911,16 +2901,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="20">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
       <c r="I30" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="16">
         <f>SUM(章节关卡!D21:D27)</f>
@@ -2935,7 +2925,7 @@
       </c>
       <c r="O30" s="20">
         <f>INT($J$35*N30/5)*5</f>
-        <v>405</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2943,14 +2933,14 @@
         <v>21</v>
       </c>
       <c r="B31" s="20">
-        <v>300</v>
+        <v>725</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="63"/>
       <c r="I31" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J31" s="16">
         <f>SUM(章节关卡!I11:I19)</f>
@@ -2965,7 +2955,7 @@
       </c>
       <c r="O31" s="20">
         <f t="shared" ref="O31:O39" si="5">INT($J$35*N31/5)*5</f>
-        <v>445</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2973,14 +2963,14 @@
         <v>22</v>
       </c>
       <c r="B32" s="20">
-        <v>360</v>
+        <v>795</v>
       </c>
       <c r="D32" s="61"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
       <c r="G32" s="63"/>
       <c r="I32" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="16">
         <f>SUM(芦花古楼!B9:B11)</f>
@@ -2995,7 +2985,7 @@
       </c>
       <c r="O32" s="20">
         <f t="shared" si="5"/>
-        <v>485</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3003,21 +2993,21 @@
         <v>23</v>
       </c>
       <c r="B33" s="20">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="D33" s="61"/>
       <c r="E33" s="62"/>
       <c r="F33" s="62"/>
       <c r="G33" s="63"/>
       <c r="I33" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="20">
         <v>300</v>
       </c>
       <c r="K33" s="16">
-        <f>挂机关卡!F21*J33</f>
-        <v>1500</v>
+        <f>挂机关卡!E21*J33</f>
+        <v>4500</v>
       </c>
       <c r="M33" s="20">
         <v>1.3</v>
@@ -3028,7 +3018,7 @@
       </c>
       <c r="O33" s="20">
         <f t="shared" si="5"/>
-        <v>525</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3036,7 +3026,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="20">
-        <v>485</v>
+        <v>925</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="62"/>
@@ -3050,7 +3040,7 @@
       </c>
       <c r="K34" s="16">
         <f>J35*J34</f>
-        <v>1187.5</v>
+        <v>1937.5</v>
       </c>
       <c r="M34" s="20">
         <v>1.4</v>
@@ -3061,7 +3051,7 @@
       </c>
       <c r="O34" s="20">
         <f t="shared" si="5"/>
-        <v>565</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3069,7 +3059,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="20">
-        <v>545</v>
+        <v>995</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="62"/>
@@ -3080,7 +3070,7 @@
       </c>
       <c r="J35" s="16">
         <f>(J30+J31+J32+K33)/(1-J34)</f>
-        <v>5937.5</v>
+        <v>9687.5</v>
       </c>
       <c r="M35" s="20">
         <v>1.5</v>
@@ -3091,7 +3081,7 @@
       </c>
       <c r="O35" s="20">
         <f t="shared" si="5"/>
-        <v>610</v>
+        <v>995</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3099,7 +3089,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="20">
-        <v>605</v>
+        <v>1060</v>
       </c>
       <c r="D36" s="61"/>
       <c r="E36" s="62"/>
@@ -3114,7 +3104,7 @@
       </c>
       <c r="O36" s="20">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3122,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="20">
-        <v>665</v>
+        <v>1125</v>
       </c>
       <c r="D37" s="61"/>
       <c r="E37" s="62"/>
@@ -3137,7 +3127,7 @@
       </c>
       <c r="O37" s="20">
         <f t="shared" si="5"/>
-        <v>690</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3145,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="20">
-        <v>725</v>
+        <v>1190</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
@@ -3160,7 +3150,7 @@
       </c>
       <c r="O38" s="20">
         <f t="shared" si="5"/>
-        <v>730</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3168,7 +3158,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="20">
-        <v>1210</v>
+        <v>1325</v>
       </c>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
@@ -3183,7 +3173,7 @@
       </c>
       <c r="O39" s="20">
         <f t="shared" si="5"/>
-        <v>810</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -3251,16 +3241,16 @@
         <v>30</v>
       </c>
       <c r="B43" s="20">
-        <v>705</v>
+        <v>1400</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="60"/>
       <c r="I43" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J43" s="16">
         <f>SUM(章节关卡!D28:D35)</f>
@@ -3275,7 +3265,7 @@
       </c>
       <c r="O43" s="20">
         <f>INT($J$49*N43/5)*5</f>
-        <v>775</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3283,14 +3273,14 @@
         <v>31</v>
       </c>
       <c r="B44" s="20">
-        <v>850</v>
+        <v>1680</v>
       </c>
       <c r="D44" s="61"/>
       <c r="E44" s="62"/>
       <c r="F44" s="62"/>
       <c r="G44" s="63"/>
       <c r="I44" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="16">
         <f>SUM(芦花古楼!B12:B14)</f>
@@ -3305,7 +3295,7 @@
       </c>
       <c r="O44" s="20">
         <f t="shared" ref="O44:O52" si="7">INT($J$49*N44/5)*5</f>
-        <v>930</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3313,14 +3303,14 @@
         <v>32</v>
       </c>
       <c r="B45" s="20">
-        <v>990</v>
+        <v>1960</v>
       </c>
       <c r="D45" s="61"/>
       <c r="E45" s="62"/>
       <c r="F45" s="62"/>
       <c r="G45" s="63"/>
       <c r="I45" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J45" s="16">
         <f>SUM(芦花古楼!J5:J8)</f>
@@ -3335,7 +3325,7 @@
       </c>
       <c r="O45" s="20">
         <f t="shared" si="7"/>
-        <v>1085</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3343,14 +3333,14 @@
         <v>33</v>
       </c>
       <c r="B46" s="20">
-        <v>1130</v>
+        <v>2245</v>
       </c>
       <c r="D46" s="61"/>
       <c r="E46" s="62"/>
       <c r="F46" s="62"/>
       <c r="G46" s="63"/>
       <c r="I46" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J46" s="16">
         <f>SUM(日常任务!D4:D19)</f>
@@ -3365,7 +3355,7 @@
       </c>
       <c r="O46" s="20">
         <f t="shared" si="7"/>
-        <v>1245</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3373,21 +3363,21 @@
         <v>34</v>
       </c>
       <c r="B47" s="20">
-        <v>1275</v>
+        <v>2525</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="62"/>
       <c r="F47" s="62"/>
       <c r="G47" s="63"/>
       <c r="I47" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" s="16">
         <v>720</v>
       </c>
       <c r="K47" s="16">
-        <f>挂机关卡!F29*J47</f>
-        <v>3600</v>
+        <f>挂机关卡!E29*J47</f>
+        <v>14400</v>
       </c>
       <c r="M47" s="20">
         <v>1.8</v>
@@ -3398,7 +3388,7 @@
       </c>
       <c r="O47" s="20">
         <f t="shared" si="7"/>
-        <v>1400</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3406,7 +3396,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="20">
-        <v>1415</v>
+        <v>2805</v>
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="62"/>
@@ -3420,7 +3410,7 @@
       </c>
       <c r="K48" s="16">
         <f>J49*J48</f>
-        <v>1494.4444444444443</v>
+        <v>2694.4444444444448</v>
       </c>
       <c r="M48" s="20">
         <v>2</v>
@@ -3431,7 +3421,7 @@
       </c>
       <c r="O48" s="20">
         <f t="shared" si="7"/>
-        <v>1555</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3439,7 +3429,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="20">
-        <v>1555</v>
+        <v>3085</v>
       </c>
       <c r="D49" s="61"/>
       <c r="E49" s="62"/>
@@ -3450,7 +3440,7 @@
       </c>
       <c r="J49" s="16">
         <f>(J43+J44+J45+J46+K47)/(1-J48)</f>
-        <v>14944.444444444443</v>
+        <v>26944.444444444445</v>
       </c>
       <c r="M49" s="20">
         <v>2.2000000000000002</v>
@@ -3461,7 +3451,7 @@
       </c>
       <c r="O49" s="20">
         <f t="shared" si="7"/>
-        <v>1710</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3469,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="20">
-        <v>1700</v>
+        <v>3365</v>
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="62"/>
@@ -3484,7 +3474,7 @@
       </c>
       <c r="O50" s="20">
         <f t="shared" si="7"/>
-        <v>1865</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3492,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="20">
-        <v>1840</v>
+        <v>3645</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="62"/>
@@ -3507,7 +3497,7 @@
       </c>
       <c r="O51" s="20">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3515,7 +3505,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="20">
-        <v>2125</v>
+        <v>4210</v>
       </c>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
@@ -3530,7 +3520,7 @@
       </c>
       <c r="O52" s="20">
         <f t="shared" si="7"/>
-        <v>2335</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3592,10 +3582,14 @@
         <v>40</v>
       </c>
       <c r="B56" s="20"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="I56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="16"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
@@ -3605,9 +3599,9 @@
         <v>41</v>
       </c>
       <c r="B57" s="20"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3615,9 +3609,9 @@
         <v>42</v>
       </c>
       <c r="B58" s="20"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3625,9 +3619,9 @@
         <v>43</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3635,9 +3629,9 @@
         <v>44</v>
       </c>
       <c r="B60" s="20"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="53"/>
     </row>
     <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3645,677 +3639,740 @@
         <v>45</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="53"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="20">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
         <v>46</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-    </row>
-    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="20">
+      <c r="B65" s="20"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="20">
         <v>47</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-    </row>
-    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="20">
+      <c r="B66" s="20"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
         <v>48</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20">
+      <c r="B67" s="20"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
         <v>49</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="20">
+      <c r="B68" s="20"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="20">
         <v>50</v>
       </c>
-      <c r="B69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="20">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="20">
         <v>51</v>
       </c>
-      <c r="B70" s="20"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="20">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
         <v>52</v>
       </c>
-      <c r="B71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
         <v>53</v>
       </c>
-      <c r="B72" s="20"/>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
         <v>54</v>
       </c>
-      <c r="B73" s="20"/>
-    </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="20">
         <v>55</v>
       </c>
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="20">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
         <v>56</v>
       </c>
-      <c r="B75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
         <v>57</v>
       </c>
-      <c r="B76" s="20"/>
-    </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="20">
         <v>58</v>
-      </c>
-      <c r="B77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
-        <v>59</v>
-      </c>
-      <c r="B78" s="20"/>
-    </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
-        <v>60</v>
-      </c>
-      <c r="B79" s="20"/>
-    </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="20">
-        <v>61</v>
       </c>
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B81" s="20"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B82" s="20"/>
     </row>
     <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B83" s="20"/>
     </row>
     <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B84" s="20"/>
     </row>
     <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B85" s="20"/>
     </row>
     <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B86" s="20"/>
     </row>
     <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" s="20"/>
     </row>
     <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="20"/>
     </row>
     <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B90" s="20"/>
     </row>
     <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B91" s="20"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B92" s="20"/>
     </row>
     <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="20">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B93" s="20"/>
     </row>
     <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B94" s="20"/>
     </row>
     <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="20">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B95" s="20"/>
     </row>
     <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="20">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B97" s="20"/>
     </row>
     <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="20">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B98" s="20"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="20">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B99" s="20"/>
     </row>
     <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="20">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B100" s="20"/>
     </row>
     <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="20">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B101" s="20"/>
     </row>
     <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B102" s="20"/>
     </row>
     <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B105" s="20"/>
     </row>
     <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="20">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B106" s="20"/>
     </row>
     <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="20">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B107" s="20"/>
     </row>
     <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="20">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B108" s="20"/>
     </row>
     <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="20">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B109" s="20"/>
     </row>
     <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="20">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B111" s="20"/>
     </row>
     <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="20">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B112" s="20"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="20">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="20">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B114" s="20"/>
     </row>
     <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="20">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B115" s="20"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="20">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B116" s="20"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B118" s="20"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="20">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B119" s="20"/>
     </row>
     <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="20">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B120" s="20"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="20">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B121" s="20"/>
     </row>
     <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="20">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B122" s="20"/>
     </row>
     <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="20">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B123" s="20"/>
     </row>
     <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="20">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B124" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="20">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B126" s="20"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="20">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B127" s="20"/>
     </row>
     <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="20">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B128" s="20"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="20">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B129" s="20"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="20">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B130" s="20"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="20">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B131" s="20"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B132" s="20"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B134" s="20"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B135" s="20"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B136" s="20"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="20">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B137" s="20"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="20">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B138" s="20"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="20">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B139" s="20"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="20">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B140" s="20"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="20">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B141" s="20"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="20">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B142" s="20"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="20">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B143" s="20"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="20">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B144" s="20"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="20">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="20">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B146" s="20"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="20">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B147" s="20"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="20">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B148" s="20"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="20">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B149" s="20"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="20">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B150" s="20"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="20">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B151" s="20"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="20">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B152" s="20"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="20">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B153" s="20"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="20">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B154" s="20"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="20">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B155" s="20"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="20">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B156" s="20"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="20">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B157" s="20"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="20">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="20">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B159" s="20"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="20">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B160" s="20"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="20">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B161" s="20"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="20">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B162" s="20"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="20">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B163" s="20"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="20">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B164" s="20"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="20">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B165" s="20"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="20">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B166" s="20"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="20">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B167" s="20"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="20">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B168" s="20"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="20">
+        <v>147</v>
+      </c>
+      <c r="B169" s="20"/>
+    </row>
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="20">
+        <v>148</v>
+      </c>
+      <c r="B170" s="20"/>
+    </row>
+    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="20">
+        <v>149</v>
+      </c>
+      <c r="B171" s="20"/>
+    </row>
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="20">
         <v>150</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B172" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D56:G65"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="D5:G13"/>
     <mergeCell ref="D17:G26"/>
     <mergeCell ref="D30:G39"/>
     <mergeCell ref="D43:G52"/>
+    <mergeCell ref="D56:G61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4556,30 +4613,30 @@
   <dimension ref="A3:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4597,8 +4654,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="16">
-        <f>VLOOKUP(E4,$B$4:$C$104,2)</f>
-        <v>2.8571428571428571E-2</v>
+        <f>VLOOKUP(E4,$B$4:$C$104,2)*24*60</f>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4616,8 +4673,8 @@
         <v>2</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" ref="F5:F68" si="0">VLOOKUP(E5,$B$4:$C$104,2)</f>
-        <v>2.8571428571428571E-2</v>
+        <f t="shared" ref="F5:F68" si="0">VLOOKUP(E5,$B$4:$C$104,2)*24*60</f>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4636,7 +4693,7 @@
       </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4655,7 +4712,7 @@
       </c>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4674,7 +4731,7 @@
       </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4693,7 +4750,7 @@
       </c>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4712,7 +4769,7 @@
       </c>
       <c r="F10" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4731,7 +4788,7 @@
       </c>
       <c r="F11" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4750,7 +4807,7 @@
       </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4769,7 +4826,7 @@
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4788,7 +4845,7 @@
       </c>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4807,7 +4864,7 @@
       </c>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4826,7 +4883,7 @@
       </c>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4845,7 +4902,7 @@
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4864,7 +4921,7 @@
       </c>
       <c r="F18" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4883,7 +4940,7 @@
       </c>
       <c r="F19" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4902,7 +4959,7 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4921,7 +4978,7 @@
       </c>
       <c r="F21" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4940,7 +4997,7 @@
       </c>
       <c r="F22" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4959,7 +5016,7 @@
       </c>
       <c r="F23" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4978,7 +5035,7 @@
       </c>
       <c r="F24" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4997,7 +5054,7 @@
       </c>
       <c r="F25" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5016,7 +5073,7 @@
       </c>
       <c r="F26" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5035,7 +5092,7 @@
       </c>
       <c r="F27" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5054,7 +5111,7 @@
       </c>
       <c r="F28" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5073,7 +5130,7 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5092,7 +5149,7 @@
       </c>
       <c r="F30" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5111,7 +5168,7 @@
       </c>
       <c r="F31" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5130,7 +5187,7 @@
       </c>
       <c r="F32" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5149,7 +5206,7 @@
       </c>
       <c r="F33" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5168,7 +5225,7 @@
       </c>
       <c r="F34" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5187,7 +5244,7 @@
       </c>
       <c r="F35" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5206,7 +5263,7 @@
       </c>
       <c r="F36" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5225,7 +5282,7 @@
       </c>
       <c r="F37" s="16">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5244,7 +5301,7 @@
       </c>
       <c r="F38" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5263,7 +5320,7 @@
       </c>
       <c r="F39" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5282,7 +5339,7 @@
       </c>
       <c r="F40" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5301,7 +5358,7 @@
       </c>
       <c r="F41" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5320,7 +5377,7 @@
       </c>
       <c r="F42" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5339,7 +5396,7 @@
       </c>
       <c r="F43" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5358,7 +5415,7 @@
       </c>
       <c r="F44" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5377,7 +5434,7 @@
       </c>
       <c r="F45" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5396,7 +5453,7 @@
       </c>
       <c r="F46" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5415,7 +5472,7 @@
       </c>
       <c r="F47" s="16">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>144.00000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5434,7 +5491,7 @@
       </c>
       <c r="F48" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5453,7 +5510,7 @@
       </c>
       <c r="F49" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5472,7 +5529,7 @@
       </c>
       <c r="F50" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5491,7 +5548,7 @@
       </c>
       <c r="F51" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5510,7 +5567,7 @@
       </c>
       <c r="F52" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5529,7 +5586,7 @@
       </c>
       <c r="F53" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5548,7 +5605,7 @@
       </c>
       <c r="F54" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5567,7 +5624,7 @@
       </c>
       <c r="F55" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5586,7 +5643,7 @@
       </c>
       <c r="F56" s="16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5605,7 +5662,7 @@
       </c>
       <c r="F57" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5624,7 +5681,7 @@
       </c>
       <c r="F58" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5643,7 +5700,7 @@
       </c>
       <c r="F59" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5662,7 +5719,7 @@
       </c>
       <c r="F60" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5681,7 +5738,7 @@
       </c>
       <c r="F61" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5700,7 +5757,7 @@
       </c>
       <c r="F62" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5719,7 +5776,7 @@
       </c>
       <c r="F63" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5738,7 +5795,7 @@
       </c>
       <c r="F64" s="16">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5757,7 +5814,7 @@
       </c>
       <c r="F65" s="16">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5776,7 +5833,7 @@
       </c>
       <c r="F66" s="16">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5795,7 +5852,7 @@
       </c>
       <c r="F67" s="16">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5814,7 +5871,7 @@
       </c>
       <c r="F68" s="16">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5832,8 +5889,8 @@
         <v>66</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" ref="F69:F132" si="2">VLOOKUP(E69,$B$4:$C$104,2)</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="F69:F132" si="2">VLOOKUP(E69,$B$4:$C$104,2)*24*60</f>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5844,7 +5901,7 @@
         <v>136.5</v>
       </c>
       <c r="C70" s="25">
-        <f t="shared" ref="C70:C104" si="3">1/(B71-B70)</f>
+        <f t="shared" ref="C70:C103" si="3">1/(B71-B70)</f>
         <v>4</v>
       </c>
       <c r="E70" s="25">
@@ -5852,7 +5909,7 @@
       </c>
       <c r="F70" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5871,7 +5928,7 @@
       </c>
       <c r="F71" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5890,7 +5947,7 @@
       </c>
       <c r="F72" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5909,7 +5966,7 @@
       </c>
       <c r="F73" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5928,7 +5985,7 @@
       </c>
       <c r="F74" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5947,7 +6004,7 @@
       </c>
       <c r="F75" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5966,7 +6023,7 @@
       </c>
       <c r="F76" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5985,7 +6042,7 @@
       </c>
       <c r="F77" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6004,7 +6061,7 @@
       </c>
       <c r="F78" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6023,7 +6080,7 @@
       </c>
       <c r="F79" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6042,7 +6099,7 @@
       </c>
       <c r="F80" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6061,7 +6118,7 @@
       </c>
       <c r="F81" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6080,7 +6137,7 @@
       </c>
       <c r="F82" s="16">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6099,7 +6156,7 @@
       </c>
       <c r="F83" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6118,7 +6175,7 @@
       </c>
       <c r="F84" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6137,7 +6194,7 @@
       </c>
       <c r="F85" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6156,7 +6213,7 @@
       </c>
       <c r="F86" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6175,7 +6232,7 @@
       </c>
       <c r="F87" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6194,7 +6251,7 @@
       </c>
       <c r="F88" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6213,7 +6270,7 @@
       </c>
       <c r="F89" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6232,7 +6289,7 @@
       </c>
       <c r="F90" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6251,7 +6308,7 @@
       </c>
       <c r="F91" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6270,7 +6327,7 @@
       </c>
       <c r="F92" s="16">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>288.00000000000006</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6289,7 +6346,7 @@
       </c>
       <c r="F93" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6308,7 +6365,7 @@
       </c>
       <c r="F94" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6327,7 +6384,7 @@
       </c>
       <c r="F95" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6346,7 +6403,7 @@
       </c>
       <c r="F96" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6365,7 +6422,7 @@
       </c>
       <c r="F97" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6384,7 +6441,7 @@
       </c>
       <c r="F98" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6403,7 +6460,7 @@
       </c>
       <c r="F99" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6422,7 +6479,7 @@
       </c>
       <c r="F100" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6441,7 +6498,7 @@
       </c>
       <c r="F101" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6460,7 +6517,7 @@
       </c>
       <c r="F102" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6479,7 +6536,7 @@
       </c>
       <c r="F103" s="16">
         <f t="shared" si="2"/>
-        <v>0.52306726645046564</v>
+        <v>753.21686368867051</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6497,7 +6554,7 @@
       </c>
       <c r="F104" s="16">
         <f t="shared" si="2"/>
-        <v>0.52306726645046564</v>
+        <v>753.21686368867051</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6506,7 +6563,7 @@
       </c>
       <c r="F105" s="16">
         <f t="shared" si="2"/>
-        <v>0.54836586970826962</v>
+        <v>789.6468523799083</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6515,7 +6572,7 @@
       </c>
       <c r="F106" s="16">
         <f t="shared" si="2"/>
-        <v>0.54836586970826962</v>
+        <v>789.6468523799083</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6524,7 +6581,7 @@
       </c>
       <c r="F107" s="16">
         <f t="shared" si="2"/>
-        <v>0.57623602627636328</v>
+        <v>829.77987783796311</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6533,7 +6590,7 @@
       </c>
       <c r="F108" s="16">
         <f t="shared" si="2"/>
-        <v>0.57623602627636328</v>
+        <v>829.77987783796311</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6542,7 +6599,7 @@
       </c>
       <c r="F109" s="16">
         <f t="shared" si="2"/>
-        <v>0.60709082078679044</v>
+        <v>874.21078193297819</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6551,7 +6608,7 @@
       </c>
       <c r="F110" s="16">
         <f t="shared" si="2"/>
-        <v>0.60709082078679044</v>
+        <v>874.21078193297819</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6560,7 +6617,7 @@
       </c>
       <c r="F111" s="16">
         <f t="shared" si="2"/>
-        <v>0.64143681847338141</v>
+        <v>923.66901860166922</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6569,7 +6626,7 @@
       </c>
       <c r="F112" s="16">
         <f t="shared" si="2"/>
-        <v>0.67990209409845126</v>
+        <v>979.05901550176986</v>
       </c>
     </row>
     <row r="113" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6578,7 +6635,7 @@
       </c>
       <c r="F113" s="16">
         <f t="shared" si="2"/>
-        <v>0.67990209409845126</v>
+        <v>979.05901550176986</v>
       </c>
     </row>
     <row r="114" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6587,7 +6644,7 @@
       </c>
       <c r="F114" s="16">
         <f t="shared" si="2"/>
-        <v>0.72327498915087696</v>
+        <v>1041.5159843772628</v>
       </c>
     </row>
     <row r="115" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6596,7 +6653,7 @@
       </c>
       <c r="F115" s="16">
         <f t="shared" si="2"/>
-        <v>0.77255871446230151</v>
+        <v>1112.4845488257142</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6605,7 +6662,7 @@
       </c>
       <c r="F116" s="16">
         <f t="shared" si="2"/>
-        <v>0.82904990880451312</v>
+        <v>1193.8318686784989</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6614,7 +6671,7 @@
       </c>
       <c r="F117" s="16">
         <f t="shared" si="2"/>
-        <v>0.82904990880451312</v>
+        <v>1193.8318686784989</v>
       </c>
     </row>
     <row r="118" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6623,7 +6680,7 @@
       </c>
       <c r="F118" s="16">
         <f t="shared" si="2"/>
-        <v>0.89445438282647982</v>
+        <v>1288.014311270131</v>
       </c>
     </row>
     <row r="119" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6632,7 +6689,7 @@
       </c>
       <c r="F119" s="16">
         <f t="shared" si="2"/>
-        <v>0.97106234220237453</v>
+        <v>1398.3297727714191</v>
       </c>
     </row>
     <row r="120" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6641,7 +6698,7 @@
       </c>
       <c r="F120" s="16">
         <f t="shared" si="2"/>
-        <v>1.0620220900594801</v>
+        <v>1529.3118096856513</v>
       </c>
     </row>
     <row r="121" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6650,7 +6707,7 @@
       </c>
       <c r="F121" s="16">
         <f t="shared" si="2"/>
-        <v>1.3068478829064416</v>
+        <v>1881.8609513852759</v>
       </c>
     </row>
     <row r="122" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6659,7 +6716,7 @@
       </c>
       <c r="F122" s="16">
         <f t="shared" si="2"/>
-        <v>1.4771048744461019</v>
+        <v>2127.0310192023867</v>
       </c>
     </row>
     <row r="123" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6668,7 +6725,7 @@
       </c>
       <c r="F123" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="124" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6677,7 +6734,7 @@
       </c>
       <c r="F124" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="125" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6686,7 +6743,7 @@
       </c>
       <c r="F125" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="126" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6695,7 +6752,7 @@
       </c>
       <c r="F126" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="127" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6704,7 +6761,7 @@
       </c>
       <c r="F127" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="128" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6713,7 +6770,7 @@
       </c>
       <c r="F128" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="129" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6722,7 +6779,7 @@
       </c>
       <c r="F129" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="130" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6731,7 +6788,7 @@
       </c>
       <c r="F130" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="131" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6740,7 +6797,7 @@
       </c>
       <c r="F131" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="132" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6749,7 +6806,7 @@
       </c>
       <c r="F132" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="133" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6757,8 +6814,8 @@
         <v>130</v>
       </c>
       <c r="F133" s="16">
-        <f t="shared" ref="F133:F153" si="4">VLOOKUP(E133,$B$4:$C$104,2)</f>
-        <v>2</v>
+        <f t="shared" ref="F133:F153" si="4">VLOOKUP(E133,$B$4:$C$104,2)*24*60</f>
+        <v>2880</v>
       </c>
     </row>
     <row r="134" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6767,7 +6824,7 @@
       </c>
       <c r="F134" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="135" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6776,7 +6833,7 @@
       </c>
       <c r="F135" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="136" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6785,7 +6842,7 @@
       </c>
       <c r="F136" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="137" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6794,7 +6851,7 @@
       </c>
       <c r="F137" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="138" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6803,7 +6860,7 @@
       </c>
       <c r="F138" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="139" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6812,7 +6869,7 @@
       </c>
       <c r="F139" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="140" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6821,7 +6878,7 @@
       </c>
       <c r="F140" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="141" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6830,7 +6887,7 @@
       </c>
       <c r="F141" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="142" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6839,7 +6896,7 @@
       </c>
       <c r="F142" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="143" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6848,7 +6905,7 @@
       </c>
       <c r="F143" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="144" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6857,7 +6914,7 @@
       </c>
       <c r="F144" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="145" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6866,7 +6923,7 @@
       </c>
       <c r="F145" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="146" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6875,7 +6932,7 @@
       </c>
       <c r="F146" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="147" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6884,7 +6941,7 @@
       </c>
       <c r="F147" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="148" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6893,7 +6950,7 @@
       </c>
       <c r="F148" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="149" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6902,7 +6959,7 @@
       </c>
       <c r="F149" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="150" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6911,7 +6968,7 @@
       </c>
       <c r="F150" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="151" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6920,7 +6977,7 @@
       </c>
       <c r="F151" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="152" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6929,7 +6986,7 @@
       </c>
       <c r="F152" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="153" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6938,7 +6995,7 @@
       </c>
       <c r="F153" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5760</v>
       </c>
     </row>
   </sheetData>
@@ -6949,10 +7006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J209"/>
+  <dimension ref="B2:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6961,13 +7018,12 @@
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
@@ -6981,19 +7037,22 @@
         <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="19">
         <v>1</v>
       </c>
@@ -7004,22 +7063,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="19">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="50">
+        <v>10</v>
+      </c>
+      <c r="J3" s="50">
         <v>1</v>
       </c>
-      <c r="F3" s="20">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
-        <v>2</v>
-      </c>
-      <c r="I3" s="73">
-        <v>10</v>
-      </c>
-      <c r="J3" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B4" s="19">
         <v>2</v>
       </c>
@@ -7030,18 +7092,21 @@
         <v>2</v>
       </c>
       <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="F4" s="19">
         <v>5</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -7052,18 +7117,21 @@
         <v>3</v>
       </c>
       <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="F5" s="19">
         <v>8</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -7074,19 +7142,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20">
         <v>5</v>
       </c>
-      <c r="G6" s="19">
-        <f>E6*10</f>
+      <c r="F6" s="19">
         <v>10</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -7097,22 +7167,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19">
+        <v>11</v>
+      </c>
+      <c r="I7" s="50">
+        <v>20</v>
+      </c>
+      <c r="J7" s="50">
         <v>2</v>
       </c>
-      <c r="F7" s="20">
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="G7" s="19">
-        <v>11</v>
-      </c>
-      <c r="I7" s="70">
-        <v>20</v>
-      </c>
-      <c r="J7" s="70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>6</v>
       </c>
@@ -7123,18 +7196,21 @@
         <v>2</v>
       </c>
       <c r="E8" s="19">
-        <v>2</v>
-      </c>
-      <c r="F8" s="20">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19">
         <v>12</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -7145,18 +7221,21 @@
         <v>3</v>
       </c>
       <c r="E9" s="19">
-        <v>2</v>
-      </c>
-      <c r="F9" s="20">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
+        <v>10</v>
+      </c>
+      <c r="F9" s="27">
         <v>13</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>8</v>
       </c>
@@ -7167,18 +7246,21 @@
         <v>4</v>
       </c>
       <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="20">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="F10" s="27">
         <v>15</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>9</v>
       </c>
@@ -7189,18 +7271,21 @@
         <v>5</v>
       </c>
       <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="F11" s="20">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="27">
         <v>16</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>10</v>
       </c>
@@ -7211,18 +7296,21 @@
         <v>6</v>
       </c>
       <c r="E12" s="19">
-        <v>2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>5</v>
-      </c>
-      <c r="G12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="27">
         <v>17</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>11</v>
       </c>
@@ -7233,18 +7321,21 @@
         <v>7</v>
       </c>
       <c r="E13" s="19">
-        <v>2</v>
-      </c>
-      <c r="F13" s="20">
-        <v>5</v>
-      </c>
-      <c r="G13" s="19">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27">
         <v>18</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>12</v>
       </c>
@@ -7255,19 +7346,21 @@
         <v>8</v>
       </c>
       <c r="E14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20">
-        <v>5</v>
-      </c>
-      <c r="G14" s="19">
-        <f>E14*10</f>
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
         <v>20</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-    </row>
-    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>13</v>
       </c>
@@ -7278,22 +7371,25 @@
         <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19">
+        <v>21</v>
+      </c>
+      <c r="I15" s="50">
+        <v>30</v>
+      </c>
+      <c r="J15" s="50">
         <v>5</v>
       </c>
-      <c r="G15" s="19">
-        <v>21</v>
-      </c>
-      <c r="I15" s="70">
-        <v>30</v>
-      </c>
-      <c r="J15" s="70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>14</v>
       </c>
@@ -7304,18 +7400,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="19">
-        <v>3</v>
-      </c>
-      <c r="F16" s="20">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19">
         <v>22</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>15</v>
       </c>
@@ -7326,18 +7425,21 @@
         <v>3</v>
       </c>
       <c r="E17" s="19">
-        <v>3</v>
-      </c>
-      <c r="F17" s="20">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19">
+        <v>15</v>
+      </c>
+      <c r="F17" s="27">
         <v>23</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="19">
         <v>16</v>
       </c>
@@ -7348,18 +7450,15 @@
         <v>4</v>
       </c>
       <c r="E18" s="19">
-        <v>3</v>
-      </c>
-      <c r="F18" s="20">
-        <v>5</v>
-      </c>
-      <c r="G18" s="19">
+        <v>15</v>
+      </c>
+      <c r="F18" s="27">
         <v>25</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>17</v>
       </c>
@@ -7370,18 +7469,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="20">
-        <v>5</v>
-      </c>
-      <c r="G19" s="19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="27">
         <v>27</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" s="19">
         <v>18</v>
       </c>
@@ -7392,18 +7488,15 @@
         <v>6</v>
       </c>
       <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="19">
+        <v>15</v>
+      </c>
+      <c r="F20" s="27">
         <v>28</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="19">
         <v>19</v>
       </c>
@@ -7414,19 +7507,15 @@
         <v>7</v>
       </c>
       <c r="E21" s="19">
-        <v>3</v>
-      </c>
-      <c r="F21" s="20">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19">
-        <f>E21*10</f>
+        <v>15</v>
+      </c>
+      <c r="F21" s="19">
         <v>30</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="19">
         <v>20</v>
       </c>
@@ -7437,22 +7526,19 @@
         <v>8</v>
       </c>
       <c r="E22" s="19">
-        <v>4</v>
-      </c>
-      <c r="F22" s="20">
-        <v>5</v>
-      </c>
-      <c r="G22" s="19">
+        <v>20</v>
+      </c>
+      <c r="F22" s="19">
         <v>31</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="50">
         <v>40</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="50">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="19">
         <v>21</v>
       </c>
@@ -7463,18 +7549,15 @@
         <v>9</v>
       </c>
       <c r="E23" s="19">
-        <v>4</v>
-      </c>
-      <c r="F23" s="20">
-        <v>5</v>
-      </c>
-      <c r="G23" s="19">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19">
         <v>32</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="19">
         <v>22</v>
       </c>
@@ -7485,18 +7568,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="19">
-        <v>4</v>
-      </c>
-      <c r="F24" s="20">
-        <v>5</v>
-      </c>
-      <c r="G24" s="19">
+        <v>20</v>
+      </c>
+      <c r="F24" s="27">
         <v>33</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="19">
         <v>23</v>
       </c>
@@ -7507,18 +7587,15 @@
         <v>11</v>
       </c>
       <c r="E25" s="19">
-        <v>4</v>
-      </c>
-      <c r="F25" s="20">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27">
         <v>35</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B26" s="19">
         <v>24</v>
       </c>
@@ -7529,18 +7606,15 @@
         <v>12</v>
       </c>
       <c r="E26" s="19">
-        <v>4</v>
-      </c>
-      <c r="F26" s="20">
-        <v>5</v>
-      </c>
-      <c r="G26" s="19">
+        <v>20</v>
+      </c>
+      <c r="F26" s="27">
         <v>36</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="19">
         <v>25</v>
       </c>
@@ -7551,18 +7625,15 @@
         <v>13</v>
       </c>
       <c r="E27" s="19">
-        <v>4</v>
-      </c>
-      <c r="F27" s="20">
-        <v>5</v>
-      </c>
-      <c r="G27" s="19">
+        <v>20</v>
+      </c>
+      <c r="F27" s="27">
         <v>37</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B28" s="19">
         <v>26</v>
       </c>
@@ -7573,18 +7644,15 @@
         <v>14</v>
       </c>
       <c r="E28" s="19">
-        <v>4</v>
-      </c>
-      <c r="F28" s="20">
-        <v>5</v>
-      </c>
-      <c r="G28" s="19">
+        <v>20</v>
+      </c>
+      <c r="F28" s="27">
         <v>38</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B29" s="19">
         <v>27</v>
       </c>
@@ -7595,19 +7663,15 @@
         <v>15</v>
       </c>
       <c r="E29" s="19">
-        <v>4</v>
-      </c>
-      <c r="F29" s="20">
-        <v>5</v>
-      </c>
-      <c r="G29" s="19">
-        <f>E29*10</f>
+        <v>20</v>
+      </c>
+      <c r="F29" s="19">
         <v>40</v>
       </c>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-    </row>
-    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="19">
         <v>28</v>
       </c>
@@ -7618,18 +7682,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="19">
-        <v>5</v>
-      </c>
-      <c r="F30" s="20">
-        <v>5</v>
-      </c>
-      <c r="G30" s="19">
+        <v>25</v>
+      </c>
+      <c r="F30" s="19">
         <v>41</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I30" s="50">
+        <v>45</v>
+      </c>
+      <c r="J30" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <v>29</v>
       </c>
@@ -7640,18 +7705,15 @@
         <v>2</v>
       </c>
       <c r="E31" s="19">
-        <v>5</v>
-      </c>
-      <c r="F31" s="20">
-        <v>5</v>
-      </c>
-      <c r="G31" s="19">
+        <v>25</v>
+      </c>
+      <c r="F31" s="19">
         <v>42</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+    </row>
+    <row r="32" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B32" s="19">
         <v>30</v>
       </c>
@@ -7662,16 +7724,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="19">
-        <v>5</v>
-      </c>
-      <c r="F32" s="20">
-        <v>5</v>
-      </c>
-      <c r="G32" s="19">
+        <v>25</v>
+      </c>
+      <c r="F32" s="27">
         <v>43</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
@@ -7684,16 +7743,13 @@
         <v>4</v>
       </c>
       <c r="E33" s="19">
-        <v>5</v>
-      </c>
-      <c r="F33" s="20">
-        <v>5</v>
-      </c>
-      <c r="G33" s="19">
+        <v>25</v>
+      </c>
+      <c r="F33" s="27">
         <v>45</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B34" s="19">
@@ -7706,16 +7762,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="19">
-        <v>5</v>
-      </c>
-      <c r="F34" s="20">
-        <v>5</v>
-      </c>
-      <c r="G34" s="19">
+        <v>25</v>
+      </c>
+      <c r="F34" s="19">
         <v>47</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35" s="19">
@@ -7728,16 +7781,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="19">
-        <v>5</v>
-      </c>
-      <c r="F35" s="20">
-        <v>5</v>
-      </c>
-      <c r="G35" s="19">
+        <v>25</v>
+      </c>
+      <c r="F35" s="19">
         <v>48</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="19">
@@ -7750,17 +7800,13 @@
         <v>7</v>
       </c>
       <c r="E36" s="19">
-        <v>5</v>
-      </c>
-      <c r="F36" s="20">
-        <v>5</v>
-      </c>
-      <c r="G36" s="19">
-        <f>E36*10</f>
+        <v>25</v>
+      </c>
+      <c r="F36" s="19">
         <v>50</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B37" s="19">
@@ -7773,16 +7819,17 @@
         <v>8</v>
       </c>
       <c r="E37" s="19">
-        <v>6</v>
-      </c>
-      <c r="F37" s="20">
-        <v>5</v>
-      </c>
-      <c r="G37" s="19">
+        <v>30</v>
+      </c>
+      <c r="F37" s="19">
         <v>51</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="I37" s="50">
+        <v>50</v>
+      </c>
+      <c r="J37" s="50">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B38" s="19">
@@ -7795,16 +7842,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="19">
-        <v>6</v>
-      </c>
-      <c r="F38" s="20">
-        <v>5</v>
-      </c>
-      <c r="G38" s="19">
+        <v>30</v>
+      </c>
+      <c r="F38" s="19">
         <v>52</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B39" s="19">
@@ -7817,16 +7861,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="19">
-        <v>6</v>
-      </c>
-      <c r="F39" s="20">
-        <v>5</v>
-      </c>
-      <c r="G39" s="19">
+        <v>30</v>
+      </c>
+      <c r="F39" s="27">
         <v>53</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B40" s="19">
@@ -7839,16 +7880,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="19">
-        <v>6</v>
-      </c>
-      <c r="F40" s="20">
-        <v>5</v>
-      </c>
-      <c r="G40" s="19">
+        <v>30</v>
+      </c>
+      <c r="F40" s="27">
         <v>55</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
@@ -7861,16 +7899,13 @@
         <v>12</v>
       </c>
       <c r="E41" s="19">
-        <v>6</v>
-      </c>
-      <c r="F41" s="20">
-        <v>5</v>
-      </c>
-      <c r="G41" s="19">
+        <v>30</v>
+      </c>
+      <c r="F41" s="27">
         <v>56</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="19">
@@ -7883,16 +7918,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="19">
-        <v>6</v>
-      </c>
-      <c r="F42" s="20">
-        <v>5</v>
-      </c>
-      <c r="G42" s="19">
+        <v>30</v>
+      </c>
+      <c r="F42" s="27">
         <v>57</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
     </row>
     <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B43" s="19">
@@ -7905,16 +7937,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="19">
-        <v>6</v>
-      </c>
-      <c r="F43" s="20">
-        <v>5</v>
-      </c>
-      <c r="G43" s="19">
+        <v>30</v>
+      </c>
+      <c r="F43" s="27">
         <v>58</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B44" s="19">
@@ -7927,17 +7956,13 @@
         <v>15</v>
       </c>
       <c r="E44" s="19">
-        <v>6</v>
-      </c>
-      <c r="F44" s="20">
-        <v>5</v>
-      </c>
-      <c r="G44" s="19">
-        <f>E44*10</f>
+        <v>30</v>
+      </c>
+      <c r="F44" s="19">
         <v>60</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B45" s="19">
@@ -7950,16 +7975,15 @@
         <v>1</v>
       </c>
       <c r="E45" s="19">
-        <v>7</v>
-      </c>
-      <c r="F45" s="20">
-        <v>5</v>
-      </c>
-      <c r="G45" s="19">
+        <v>35</v>
+      </c>
+      <c r="F45" s="19">
         <v>61</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="I45" s="50">
+        <v>55</v>
+      </c>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B46" s="19">
@@ -7972,16 +7996,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="19">
-        <v>7</v>
-      </c>
-      <c r="F46" s="20">
-        <v>5</v>
-      </c>
-      <c r="G46" s="19">
+        <v>35</v>
+      </c>
+      <c r="F46" s="19">
         <v>62</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B47" s="19">
@@ -7994,16 +8015,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="19">
-        <v>7</v>
-      </c>
-      <c r="F47" s="20">
-        <v>5</v>
-      </c>
-      <c r="G47" s="19">
+        <v>35</v>
+      </c>
+      <c r="F47" s="19">
         <v>63</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="19">
@@ -8016,16 +8034,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="19">
-        <v>7</v>
-      </c>
-      <c r="F48" s="20">
-        <v>5</v>
-      </c>
-      <c r="G48" s="19">
+        <v>35</v>
+      </c>
+      <c r="F48" s="19">
         <v>65</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B49" s="19">
@@ -8038,16 +8053,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="19">
-        <v>7</v>
-      </c>
-      <c r="F49" s="20">
-        <v>5</v>
-      </c>
-      <c r="G49" s="19">
+        <v>35</v>
+      </c>
+      <c r="F49" s="19">
         <v>66</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B50" s="19">
@@ -8060,16 +8072,13 @@
         <v>6</v>
       </c>
       <c r="E50" s="19">
-        <v>7</v>
-      </c>
-      <c r="F50" s="20">
-        <v>5</v>
-      </c>
-      <c r="G50" s="19">
+        <v>35</v>
+      </c>
+      <c r="F50" s="19">
         <v>68</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="68"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B51" s="19">
@@ -8082,17 +8091,13 @@
         <v>7</v>
       </c>
       <c r="E51" s="19">
-        <v>7</v>
-      </c>
-      <c r="F51" s="20">
-        <v>5</v>
-      </c>
-      <c r="G51" s="19">
-        <f>E51*10</f>
+        <v>35</v>
+      </c>
+      <c r="F51" s="19">
         <v>70</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="69"/>
     </row>
     <row r="52" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B52" s="19">
@@ -8105,12 +8110,9 @@
         <v>8</v>
       </c>
       <c r="E52" s="19">
-        <v>8</v>
-      </c>
-      <c r="F52" s="20">
-        <v>5</v>
-      </c>
-      <c r="G52" s="19">
+        <v>40</v>
+      </c>
+      <c r="F52" s="19">
         <v>71</v>
       </c>
       <c r="I52" s="25"/>
@@ -8127,12 +8129,9 @@
         <v>9</v>
       </c>
       <c r="E53" s="19">
-        <v>8</v>
-      </c>
-      <c r="F53" s="20">
-        <v>5</v>
-      </c>
-      <c r="G53" s="19">
+        <v>40</v>
+      </c>
+      <c r="F53" s="19">
         <v>72</v>
       </c>
       <c r="I53" s="25"/>
@@ -8149,12 +8148,9 @@
         <v>10</v>
       </c>
       <c r="E54" s="19">
-        <v>8</v>
-      </c>
-      <c r="F54" s="20">
-        <v>5</v>
-      </c>
-      <c r="G54" s="19">
+        <v>40</v>
+      </c>
+      <c r="F54" s="19">
         <v>73</v>
       </c>
       <c r="I54" s="25"/>
@@ -8171,12 +8167,9 @@
         <v>11</v>
       </c>
       <c r="E55" s="19">
-        <v>8</v>
-      </c>
-      <c r="F55" s="20">
-        <v>5</v>
-      </c>
-      <c r="G55" s="19">
+        <v>40</v>
+      </c>
+      <c r="F55" s="19">
         <v>75</v>
       </c>
       <c r="I55" s="25"/>
@@ -8193,12 +8186,9 @@
         <v>12</v>
       </c>
       <c r="E56" s="19">
-        <v>8</v>
-      </c>
-      <c r="F56" s="20">
-        <v>5</v>
-      </c>
-      <c r="G56" s="19">
+        <v>40</v>
+      </c>
+      <c r="F56" s="19">
         <v>76</v>
       </c>
       <c r="I56" s="25"/>
@@ -8215,12 +8205,9 @@
         <v>13</v>
       </c>
       <c r="E57" s="19">
-        <v>8</v>
-      </c>
-      <c r="F57" s="20">
-        <v>5</v>
-      </c>
-      <c r="G57" s="19">
+        <v>40</v>
+      </c>
+      <c r="F57" s="19">
         <v>77</v>
       </c>
       <c r="I57" s="25"/>
@@ -8237,12 +8224,9 @@
         <v>14</v>
       </c>
       <c r="E58" s="19">
-        <v>8</v>
-      </c>
-      <c r="F58" s="20">
-        <v>5</v>
-      </c>
-      <c r="G58" s="19">
+        <v>40</v>
+      </c>
+      <c r="F58" s="19">
         <v>78</v>
       </c>
       <c r="I58" s="25"/>
@@ -8259,13 +8243,9 @@
         <v>15</v>
       </c>
       <c r="E59" s="19">
-        <v>8</v>
-      </c>
-      <c r="F59" s="20">
-        <v>5</v>
-      </c>
-      <c r="G59" s="19">
-        <f>E59*10</f>
+        <v>40</v>
+      </c>
+      <c r="F59" s="19">
         <v>80</v>
       </c>
       <c r="I59" s="25"/>
@@ -8282,13 +8262,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="19">
-        <v>10</v>
-      </c>
-      <c r="F60" s="20">
-        <v>5</v>
-      </c>
-      <c r="G60" s="19">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="F60" s="19">
+        <v>83</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
@@ -8303,14 +8280,11 @@
       <c r="D61" s="19">
         <v>2</v>
       </c>
-      <c r="E61" s="19">
-        <v>10</v>
-      </c>
-      <c r="F61" s="20">
-        <v>5</v>
-      </c>
-      <c r="G61" s="19">
-        <v>82</v>
+      <c r="E61" s="29">
+        <v>45</v>
+      </c>
+      <c r="F61" s="29">
+        <v>86</v>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
@@ -8325,14 +8299,11 @@
       <c r="D62" s="19">
         <v>3</v>
       </c>
-      <c r="E62" s="19">
-        <v>10</v>
-      </c>
-      <c r="F62" s="20">
-        <v>5</v>
-      </c>
-      <c r="G62" s="19">
-        <v>83</v>
+      <c r="E62" s="29">
+        <v>45</v>
+      </c>
+      <c r="F62" s="29">
+        <v>89</v>
       </c>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
@@ -8347,14 +8318,11 @@
       <c r="D63" s="19">
         <v>4</v>
       </c>
-      <c r="E63" s="19">
-        <v>10</v>
-      </c>
-      <c r="F63" s="20">
-        <v>5</v>
-      </c>
-      <c r="G63" s="19">
-        <v>85</v>
+      <c r="E63" s="29">
+        <v>45</v>
+      </c>
+      <c r="F63" s="29">
+        <v>92</v>
       </c>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
@@ -8369,14 +8337,11 @@
       <c r="D64" s="19">
         <v>5</v>
       </c>
-      <c r="E64" s="19">
-        <v>10</v>
-      </c>
-      <c r="F64" s="20">
-        <v>5</v>
-      </c>
-      <c r="G64" s="19">
-        <v>86</v>
+      <c r="E64" s="29">
+        <v>45</v>
+      </c>
+      <c r="F64" s="29">
+        <v>95</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -8391,14 +8356,11 @@
       <c r="D65" s="19">
         <v>6</v>
       </c>
-      <c r="E65" s="19">
-        <v>10</v>
-      </c>
-      <c r="F65" s="20">
-        <v>5</v>
-      </c>
-      <c r="G65" s="19">
-        <v>88</v>
+      <c r="E65" s="29">
+        <v>45</v>
+      </c>
+      <c r="F65" s="29">
+        <v>98</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -8413,14 +8375,10 @@
       <c r="D66" s="19">
         <v>7</v>
       </c>
-      <c r="E66" s="19">
-        <v>10</v>
-      </c>
-      <c r="F66" s="20">
-        <v>5</v>
-      </c>
-      <c r="G66" s="19">
-        <f>E66*10</f>
+      <c r="E66" s="29">
+        <v>45</v>
+      </c>
+      <c r="F66" s="19">
         <v>100</v>
       </c>
       <c r="I66" s="25"/>
@@ -8437,12 +8395,9 @@
         <v>8</v>
       </c>
       <c r="E67" s="19">
-        <v>12</v>
-      </c>
-      <c r="F67" s="20">
-        <v>5</v>
-      </c>
-      <c r="G67" s="19">
+        <v>50</v>
+      </c>
+      <c r="F67" s="19">
         <v>101</v>
       </c>
       <c r="I67" s="25"/>
@@ -8458,13 +8413,10 @@
       <c r="D68" s="19">
         <v>9</v>
       </c>
-      <c r="E68" s="19">
-        <v>12</v>
-      </c>
-      <c r="F68" s="20">
-        <v>5</v>
-      </c>
-      <c r="G68" s="19">
+      <c r="E68" s="29">
+        <v>50</v>
+      </c>
+      <c r="F68" s="19">
         <v>102</v>
       </c>
       <c r="I68" s="25"/>
@@ -8480,13 +8432,10 @@
       <c r="D69" s="19">
         <v>10</v>
       </c>
-      <c r="E69" s="19">
-        <v>12</v>
-      </c>
-      <c r="F69" s="20">
-        <v>5</v>
-      </c>
-      <c r="G69" s="19">
+      <c r="E69" s="29">
+        <v>50</v>
+      </c>
+      <c r="F69" s="19">
         <v>103</v>
       </c>
       <c r="I69" s="25"/>
@@ -8502,13 +8451,10 @@
       <c r="D70" s="19">
         <v>11</v>
       </c>
-      <c r="E70" s="19">
-        <v>12</v>
-      </c>
-      <c r="F70" s="20">
-        <v>5</v>
-      </c>
-      <c r="G70" s="19">
+      <c r="E70" s="29">
+        <v>50</v>
+      </c>
+      <c r="F70" s="19">
         <v>105</v>
       </c>
       <c r="I70" s="25"/>
@@ -8524,13 +8470,10 @@
       <c r="D71" s="19">
         <v>12</v>
       </c>
-      <c r="E71" s="19">
-        <v>12</v>
-      </c>
-      <c r="F71" s="20">
-        <v>5</v>
-      </c>
-      <c r="G71" s="19">
+      <c r="E71" s="29">
+        <v>50</v>
+      </c>
+      <c r="F71" s="19">
         <v>106</v>
       </c>
       <c r="I71" s="25"/>
@@ -8546,13 +8489,10 @@
       <c r="D72" s="19">
         <v>13</v>
       </c>
-      <c r="E72" s="19">
-        <v>12</v>
-      </c>
-      <c r="F72" s="20">
-        <v>5</v>
-      </c>
-      <c r="G72" s="19">
+      <c r="E72" s="29">
+        <v>50</v>
+      </c>
+      <c r="F72" s="19">
         <v>107</v>
       </c>
       <c r="I72" s="25"/>
@@ -8568,13 +8508,10 @@
       <c r="D73" s="19">
         <v>14</v>
       </c>
-      <c r="E73" s="19">
-        <v>12</v>
-      </c>
-      <c r="F73" s="20">
-        <v>5</v>
-      </c>
-      <c r="G73" s="19">
+      <c r="E73" s="29">
+        <v>50</v>
+      </c>
+      <c r="F73" s="19">
         <v>108</v>
       </c>
       <c r="I73" s="25"/>
@@ -8590,14 +8527,10 @@
       <c r="D74" s="19">
         <v>15</v>
       </c>
-      <c r="E74" s="19">
-        <v>12</v>
-      </c>
-      <c r="F74" s="20">
-        <v>5</v>
-      </c>
-      <c r="G74" s="19">
-        <f>ROUND((E74/10)^0.5*20,0)*5</f>
+      <c r="E74" s="29">
+        <v>50</v>
+      </c>
+      <c r="F74" s="19">
         <v>110</v>
       </c>
       <c r="I74" s="25"/>
@@ -8614,12 +8547,9 @@
         <v>1</v>
       </c>
       <c r="E75" s="19">
-        <v>15</v>
-      </c>
-      <c r="F75" s="20">
-        <v>5</v>
-      </c>
-      <c r="G75" s="19">
+        <v>75</v>
+      </c>
+      <c r="F75" s="19">
         <v>111</v>
       </c>
       <c r="I75" s="25"/>
@@ -8636,12 +8566,9 @@
         <v>2</v>
       </c>
       <c r="E76" s="19">
-        <v>15</v>
-      </c>
-      <c r="F76" s="20">
-        <v>5</v>
-      </c>
-      <c r="G76" s="19">
+        <v>75</v>
+      </c>
+      <c r="F76" s="19">
         <v>112</v>
       </c>
       <c r="I76" s="25"/>
@@ -8658,12 +8585,9 @@
         <v>3</v>
       </c>
       <c r="E77" s="19">
-        <v>15</v>
-      </c>
-      <c r="F77" s="20">
-        <v>5</v>
-      </c>
-      <c r="G77" s="19">
+        <v>75</v>
+      </c>
+      <c r="F77" s="19">
         <v>113</v>
       </c>
       <c r="I77" s="25"/>
@@ -8680,12 +8604,9 @@
         <v>4</v>
       </c>
       <c r="E78" s="19">
-        <v>15</v>
-      </c>
-      <c r="F78" s="20">
-        <v>5</v>
-      </c>
-      <c r="G78" s="19">
+        <v>75</v>
+      </c>
+      <c r="F78" s="19">
         <v>115</v>
       </c>
       <c r="I78" s="25"/>
@@ -8702,12 +8623,9 @@
         <v>5</v>
       </c>
       <c r="E79" s="19">
-        <v>15</v>
-      </c>
-      <c r="F79" s="20">
-        <v>5</v>
-      </c>
-      <c r="G79" s="19">
+        <v>75</v>
+      </c>
+      <c r="F79" s="19">
         <v>117</v>
       </c>
       <c r="I79" s="25"/>
@@ -8724,12 +8642,9 @@
         <v>6</v>
       </c>
       <c r="E80" s="19">
-        <v>15</v>
-      </c>
-      <c r="F80" s="20">
-        <v>5</v>
-      </c>
-      <c r="G80" s="19">
+        <v>75</v>
+      </c>
+      <c r="F80" s="19">
         <v>118</v>
       </c>
       <c r="I80" s="25"/>
@@ -8746,13 +8661,9 @@
         <v>7</v>
       </c>
       <c r="E81" s="19">
-        <v>15</v>
-      </c>
-      <c r="F81" s="20">
-        <v>5</v>
-      </c>
-      <c r="G81" s="19">
-        <f>ROUND((E81/10)^0.5*20,0)*5</f>
+        <v>75</v>
+      </c>
+      <c r="F81" s="19">
         <v>120</v>
       </c>
       <c r="I81" s="25"/>
@@ -8769,12 +8680,9 @@
         <v>8</v>
       </c>
       <c r="E82" s="19">
-        <v>18</v>
-      </c>
-      <c r="F82" s="20">
-        <v>5</v>
-      </c>
-      <c r="G82" s="19">
+        <v>90</v>
+      </c>
+      <c r="F82" s="19">
         <v>121</v>
       </c>
       <c r="I82" s="25"/>
@@ -8791,12 +8699,9 @@
         <v>9</v>
       </c>
       <c r="E83" s="19">
-        <v>18</v>
-      </c>
-      <c r="F83" s="20">
-        <v>5</v>
-      </c>
-      <c r="G83" s="19">
+        <v>90</v>
+      </c>
+      <c r="F83" s="19">
         <v>123</v>
       </c>
       <c r="I83" s="25"/>
@@ -8813,12 +8718,9 @@
         <v>10</v>
       </c>
       <c r="E84" s="19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F84" s="20">
-        <v>5</v>
-      </c>
-      <c r="G84" s="20">
         <v>125</v>
       </c>
       <c r="I84" s="25"/>
@@ -8835,12 +8737,9 @@
         <v>11</v>
       </c>
       <c r="E85" s="19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F85" s="20">
-        <v>5</v>
-      </c>
-      <c r="G85" s="20">
         <v>127</v>
       </c>
       <c r="I85" s="25"/>
@@ -8857,12 +8756,9 @@
         <v>12</v>
       </c>
       <c r="E86" s="19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F86" s="20">
-        <v>5</v>
-      </c>
-      <c r="G86" s="20">
         <v>129</v>
       </c>
       <c r="I86" s="25"/>
@@ -8879,12 +8775,9 @@
         <v>13</v>
       </c>
       <c r="E87" s="19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F87" s="20">
-        <v>5</v>
-      </c>
-      <c r="G87" s="20">
         <v>131</v>
       </c>
       <c r="I87" s="25"/>
@@ -8901,12 +8794,9 @@
         <v>14</v>
       </c>
       <c r="E88" s="19">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F88" s="20">
-        <v>5</v>
-      </c>
-      <c r="G88" s="20">
         <v>133</v>
       </c>
       <c r="I88" s="25"/>
@@ -8923,13 +8813,9 @@
         <v>15</v>
       </c>
       <c r="E89" s="19">
-        <v>18</v>
-      </c>
-      <c r="F89" s="20">
-        <v>5</v>
-      </c>
-      <c r="G89" s="19">
-        <f>ROUND((E89/10)^0.5*20,0)*5</f>
+        <v>90</v>
+      </c>
+      <c r="F89" s="19">
         <v>135</v>
       </c>
       <c r="I89" s="25"/>
@@ -8946,12 +8832,9 @@
         <v>1</v>
       </c>
       <c r="E90" s="19">
-        <v>21</v>
-      </c>
-      <c r="F90" s="20">
-        <v>5</v>
-      </c>
-      <c r="G90" s="19">
+        <v>105</v>
+      </c>
+      <c r="F90" s="19">
         <v>136</v>
       </c>
       <c r="I90" s="25"/>
@@ -8968,12 +8851,9 @@
         <v>2</v>
       </c>
       <c r="E91" s="19">
-        <v>21</v>
-      </c>
-      <c r="F91" s="20">
-        <v>5</v>
-      </c>
-      <c r="G91" s="19">
+        <v>105</v>
+      </c>
+      <c r="F91" s="19">
         <v>137</v>
       </c>
       <c r="I91" s="25"/>
@@ -8990,12 +8870,9 @@
         <v>3</v>
       </c>
       <c r="E92" s="19">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F92" s="20">
-        <v>5</v>
-      </c>
-      <c r="G92" s="20">
         <v>138</v>
       </c>
       <c r="I92" s="25"/>
@@ -9012,12 +8889,9 @@
         <v>4</v>
       </c>
       <c r="E93" s="19">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F93" s="20">
-        <v>5</v>
-      </c>
-      <c r="G93" s="20">
         <v>140</v>
       </c>
       <c r="I93" s="25"/>
@@ -9034,12 +8908,9 @@
         <v>5</v>
       </c>
       <c r="E94" s="19">
-        <v>21</v>
-      </c>
-      <c r="F94" s="20">
-        <v>5</v>
-      </c>
-      <c r="G94" s="19">
+        <v>105</v>
+      </c>
+      <c r="F94" s="19">
         <v>142</v>
       </c>
       <c r="I94" s="25"/>
@@ -9056,12 +8927,9 @@
         <v>6</v>
       </c>
       <c r="E95" s="19">
-        <v>21</v>
-      </c>
-      <c r="F95" s="20">
-        <v>5</v>
-      </c>
-      <c r="G95" s="19">
+        <v>105</v>
+      </c>
+      <c r="F95" s="19">
         <v>143</v>
       </c>
       <c r="I95" s="25"/>
@@ -9078,13 +8946,9 @@
         <v>7</v>
       </c>
       <c r="E96" s="19">
-        <v>21</v>
-      </c>
-      <c r="F96" s="20">
-        <v>5</v>
-      </c>
-      <c r="G96" s="19">
-        <f>ROUND((E96/10)^0.5*20,0)*5</f>
+        <v>105</v>
+      </c>
+      <c r="F96" s="19">
         <v>145</v>
       </c>
       <c r="I96" s="25"/>
@@ -9101,12 +8965,9 @@
         <v>8</v>
       </c>
       <c r="E97" s="19">
-        <v>24</v>
-      </c>
-      <c r="F97" s="20">
-        <v>5</v>
-      </c>
-      <c r="G97" s="19">
+        <v>120</v>
+      </c>
+      <c r="F97" s="19">
         <v>146</v>
       </c>
       <c r="I97" s="25"/>
@@ -9123,12 +8984,9 @@
         <v>9</v>
       </c>
       <c r="E98" s="19">
-        <v>24</v>
-      </c>
-      <c r="F98" s="20">
-        <v>5</v>
-      </c>
-      <c r="G98" s="19">
+        <v>120</v>
+      </c>
+      <c r="F98" s="19">
         <v>147</v>
       </c>
       <c r="I98" s="25"/>
@@ -9145,12 +9003,9 @@
         <v>10</v>
       </c>
       <c r="E99" s="19">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F99" s="20">
-        <v>5</v>
-      </c>
-      <c r="G99" s="20">
         <v>148</v>
       </c>
       <c r="I99" s="25"/>
@@ -9167,12 +9022,9 @@
         <v>11</v>
       </c>
       <c r="E100" s="19">
-        <v>24</v>
-      </c>
-      <c r="F100" s="20">
-        <v>5</v>
-      </c>
-      <c r="G100" s="19">
+        <v>120</v>
+      </c>
+      <c r="F100" s="19">
         <v>150</v>
       </c>
       <c r="I100" s="25"/>
@@ -9189,12 +9041,9 @@
         <v>12</v>
       </c>
       <c r="E101" s="19">
-        <v>24</v>
-      </c>
-      <c r="F101" s="20">
-        <v>5</v>
-      </c>
-      <c r="G101" s="19">
+        <v>120</v>
+      </c>
+      <c r="F101" s="19">
         <v>151</v>
       </c>
       <c r="I101" s="25"/>
@@ -9211,12 +9060,9 @@
         <v>13</v>
       </c>
       <c r="E102" s="19">
-        <v>24</v>
-      </c>
-      <c r="F102" s="20">
-        <v>5</v>
-      </c>
-      <c r="G102" s="19">
+        <v>120</v>
+      </c>
+      <c r="F102" s="19">
         <v>152</v>
       </c>
       <c r="I102" s="25"/>
@@ -9233,12 +9079,9 @@
         <v>14</v>
       </c>
       <c r="E103" s="19">
-        <v>24</v>
-      </c>
-      <c r="F103" s="20">
-        <v>5</v>
-      </c>
-      <c r="G103" s="19">
+        <v>120</v>
+      </c>
+      <c r="F103" s="19">
         <v>153</v>
       </c>
       <c r="I103" s="25"/>
@@ -9255,13 +9098,9 @@
         <v>15</v>
       </c>
       <c r="E104" s="19">
-        <v>24</v>
-      </c>
-      <c r="F104" s="20">
-        <v>5</v>
-      </c>
-      <c r="G104" s="19">
-        <f>ROUND((E104/10)^0.5*20,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="F104" s="19">
         <v>155</v>
       </c>
       <c r="I104" s="25"/>
@@ -9278,12 +9117,9 @@
         <v>1</v>
       </c>
       <c r="E105" s="19">
-        <v>27</v>
-      </c>
-      <c r="F105" s="20">
-        <v>5</v>
-      </c>
-      <c r="G105" s="19">
+        <v>135</v>
+      </c>
+      <c r="F105" s="19">
         <v>157</v>
       </c>
       <c r="I105" s="25"/>
@@ -9300,12 +9136,9 @@
         <v>2</v>
       </c>
       <c r="E106" s="19">
-        <v>27</v>
-      </c>
-      <c r="F106" s="20">
-        <v>5</v>
-      </c>
-      <c r="G106" s="19">
+        <v>135</v>
+      </c>
+      <c r="F106" s="19">
         <v>158</v>
       </c>
       <c r="I106" s="25"/>
@@ -9322,12 +9155,9 @@
         <v>3</v>
       </c>
       <c r="E107" s="19">
-        <v>27</v>
-      </c>
-      <c r="F107" s="20">
-        <v>5</v>
-      </c>
-      <c r="G107" s="19">
+        <v>135</v>
+      </c>
+      <c r="F107" s="19">
         <v>160</v>
       </c>
       <c r="I107" s="25"/>
@@ -9344,12 +9174,9 @@
         <v>4</v>
       </c>
       <c r="E108" s="19">
-        <v>27</v>
-      </c>
-      <c r="F108" s="20">
-        <v>5</v>
-      </c>
-      <c r="G108" s="19">
+        <v>135</v>
+      </c>
+      <c r="F108" s="19">
         <v>161</v>
       </c>
       <c r="I108" s="25"/>
@@ -9366,12 +9193,9 @@
         <v>5</v>
       </c>
       <c r="E109" s="19">
-        <v>27</v>
-      </c>
-      <c r="F109" s="20">
-        <v>5</v>
-      </c>
-      <c r="G109" s="19">
+        <v>135</v>
+      </c>
+      <c r="F109" s="19">
         <v>162</v>
       </c>
       <c r="I109" s="25"/>
@@ -9388,12 +9212,9 @@
         <v>6</v>
       </c>
       <c r="E110" s="19">
-        <v>27</v>
-      </c>
-      <c r="F110" s="20">
-        <v>5</v>
-      </c>
-      <c r="G110" s="19">
+        <v>135</v>
+      </c>
+      <c r="F110" s="19">
         <v>163</v>
       </c>
       <c r="I110" s="25"/>
@@ -9410,13 +9231,9 @@
         <v>7</v>
       </c>
       <c r="E111" s="19">
-        <v>27</v>
-      </c>
-      <c r="F111" s="20">
-        <v>5</v>
-      </c>
-      <c r="G111" s="19">
-        <f>ROUND((E111/10)^0.5*20,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="F111" s="19">
         <v>165</v>
       </c>
       <c r="I111" s="25"/>
@@ -9433,12 +9250,9 @@
         <v>8</v>
       </c>
       <c r="E112" s="19">
-        <v>30</v>
-      </c>
-      <c r="F112" s="20">
-        <v>5</v>
-      </c>
-      <c r="G112" s="19">
+        <v>150</v>
+      </c>
+      <c r="F112" s="19">
         <v>166</v>
       </c>
       <c r="I112" s="25"/>
@@ -9455,12 +9269,9 @@
         <v>9</v>
       </c>
       <c r="E113" s="19">
-        <v>30</v>
-      </c>
-      <c r="F113" s="20">
-        <v>5</v>
-      </c>
-      <c r="G113" s="19">
+        <v>150</v>
+      </c>
+      <c r="F113" s="19">
         <v>167</v>
       </c>
       <c r="I113" s="25"/>
@@ -9477,12 +9288,9 @@
         <v>10</v>
       </c>
       <c r="E114" s="19">
-        <v>30</v>
-      </c>
-      <c r="F114" s="20">
-        <v>5</v>
-      </c>
-      <c r="G114" s="19">
+        <v>150</v>
+      </c>
+      <c r="F114" s="19">
         <v>168</v>
       </c>
       <c r="I114" s="25"/>
@@ -9499,12 +9307,9 @@
         <v>11</v>
       </c>
       <c r="E115" s="19">
-        <v>30</v>
-      </c>
-      <c r="F115" s="20">
-        <v>5</v>
-      </c>
-      <c r="G115" s="19">
+        <v>150</v>
+      </c>
+      <c r="F115" s="19">
         <v>170</v>
       </c>
       <c r="I115" s="25"/>
@@ -9521,12 +9326,9 @@
         <v>12</v>
       </c>
       <c r="E116" s="19">
-        <v>30</v>
-      </c>
-      <c r="F116" s="20">
-        <v>5</v>
-      </c>
-      <c r="G116" s="19">
+        <v>150</v>
+      </c>
+      <c r="F116" s="19">
         <v>171</v>
       </c>
       <c r="I116" s="25"/>
@@ -9543,12 +9345,9 @@
         <v>13</v>
       </c>
       <c r="E117" s="19">
-        <v>30</v>
-      </c>
-      <c r="F117" s="20">
-        <v>5</v>
-      </c>
-      <c r="G117" s="19">
+        <v>150</v>
+      </c>
+      <c r="F117" s="19">
         <v>172</v>
       </c>
       <c r="I117" s="25"/>
@@ -9565,12 +9364,9 @@
         <v>14</v>
       </c>
       <c r="E118" s="19">
-        <v>30</v>
-      </c>
-      <c r="F118" s="20">
-        <v>5</v>
-      </c>
-      <c r="G118" s="19">
+        <v>150</v>
+      </c>
+      <c r="F118" s="19">
         <v>173</v>
       </c>
       <c r="I118" s="25"/>
@@ -9587,13 +9383,9 @@
         <v>15</v>
       </c>
       <c r="E119" s="19">
-        <v>30</v>
-      </c>
-      <c r="F119" s="20">
-        <v>5</v>
-      </c>
-      <c r="G119" s="19">
-        <f>ROUND((E119/10)^0.5*20,0)*5</f>
+        <v>150</v>
+      </c>
+      <c r="F119" s="19">
         <v>175</v>
       </c>
       <c r="I119" s="25"/>
@@ -9610,12 +9402,9 @@
         <v>1</v>
       </c>
       <c r="E120" s="19">
-        <v>35</v>
-      </c>
-      <c r="F120" s="20">
-        <v>5</v>
-      </c>
-      <c r="G120" s="19">
+        <v>175</v>
+      </c>
+      <c r="F120" s="19">
         <v>176</v>
       </c>
       <c r="I120" s="25"/>
@@ -9632,12 +9421,9 @@
         <v>2</v>
       </c>
       <c r="E121" s="19">
-        <v>35</v>
-      </c>
-      <c r="F121" s="20">
-        <v>5</v>
-      </c>
-      <c r="G121" s="19">
+        <v>175</v>
+      </c>
+      <c r="F121" s="19">
         <v>178</v>
       </c>
       <c r="I121" s="25"/>
@@ -9654,12 +9440,9 @@
         <v>3</v>
       </c>
       <c r="E122" s="19">
-        <v>35</v>
-      </c>
-      <c r="F122" s="20">
-        <v>5</v>
-      </c>
-      <c r="G122" s="19">
+        <v>175</v>
+      </c>
+      <c r="F122" s="19">
         <v>180</v>
       </c>
       <c r="I122" s="25"/>
@@ -9676,12 +9459,9 @@
         <v>4</v>
       </c>
       <c r="E123" s="19">
-        <v>35</v>
-      </c>
-      <c r="F123" s="20">
-        <v>5</v>
-      </c>
-      <c r="G123" s="19">
+        <v>175</v>
+      </c>
+      <c r="F123" s="19">
         <v>181</v>
       </c>
       <c r="I123" s="25"/>
@@ -9698,12 +9478,9 @@
         <v>5</v>
       </c>
       <c r="E124" s="19">
-        <v>35</v>
-      </c>
-      <c r="F124" s="20">
-        <v>5</v>
-      </c>
-      <c r="G124" s="19">
+        <v>175</v>
+      </c>
+      <c r="F124" s="19">
         <v>182</v>
       </c>
       <c r="I124" s="25"/>
@@ -9720,12 +9497,9 @@
         <v>6</v>
       </c>
       <c r="E125" s="19">
-        <v>35</v>
-      </c>
-      <c r="F125" s="20">
-        <v>5</v>
-      </c>
-      <c r="G125" s="19">
+        <v>175</v>
+      </c>
+      <c r="F125" s="19">
         <v>183</v>
       </c>
       <c r="I125" s="25"/>
@@ -9742,13 +9516,9 @@
         <v>7</v>
       </c>
       <c r="E126" s="19">
-        <v>35</v>
-      </c>
-      <c r="F126" s="20">
-        <v>5</v>
-      </c>
-      <c r="G126" s="19">
-        <f>ROUND((E126/10)^0.5*20,0)*5</f>
+        <v>175</v>
+      </c>
+      <c r="F126" s="19">
         <v>185</v>
       </c>
       <c r="I126" s="25"/>
@@ -9765,12 +9535,9 @@
         <v>8</v>
       </c>
       <c r="E127" s="19">
-        <v>40</v>
-      </c>
-      <c r="F127" s="20">
-        <v>5</v>
-      </c>
-      <c r="G127" s="19">
+        <v>200</v>
+      </c>
+      <c r="F127" s="19">
         <v>187</v>
       </c>
       <c r="I127" s="25"/>
@@ -9787,12 +9554,9 @@
         <v>9</v>
       </c>
       <c r="E128" s="19">
-        <v>40</v>
-      </c>
-      <c r="F128" s="20">
-        <v>5</v>
-      </c>
-      <c r="G128" s="19">
+        <v>200</v>
+      </c>
+      <c r="F128" s="19">
         <v>188</v>
       </c>
       <c r="I128" s="25"/>
@@ -9809,12 +9573,9 @@
         <v>10</v>
       </c>
       <c r="E129" s="19">
-        <v>40</v>
-      </c>
-      <c r="F129" s="20">
-        <v>5</v>
-      </c>
-      <c r="G129" s="19">
+        <v>200</v>
+      </c>
+      <c r="F129" s="19">
         <v>190</v>
       </c>
       <c r="I129" s="25"/>
@@ -9831,12 +9592,9 @@
         <v>11</v>
       </c>
       <c r="E130" s="19">
-        <v>40</v>
-      </c>
-      <c r="F130" s="20">
-        <v>5</v>
-      </c>
-      <c r="G130" s="19">
+        <v>200</v>
+      </c>
+      <c r="F130" s="19">
         <v>192</v>
       </c>
       <c r="I130" s="25"/>
@@ -9853,12 +9611,9 @@
         <v>12</v>
       </c>
       <c r="E131" s="19">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F131" s="20">
-        <v>5</v>
-      </c>
-      <c r="G131" s="20">
         <v>194</v>
       </c>
       <c r="I131" s="25"/>
@@ -9875,12 +9630,9 @@
         <v>13</v>
       </c>
       <c r="E132" s="19">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F132" s="20">
-        <v>5</v>
-      </c>
-      <c r="G132" s="20">
         <v>196</v>
       </c>
       <c r="I132" s="25"/>
@@ -9897,12 +9649,9 @@
         <v>14</v>
       </c>
       <c r="E133" s="19">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F133" s="20">
-        <v>5</v>
-      </c>
-      <c r="G133" s="20">
         <v>198</v>
       </c>
       <c r="I133" s="25"/>
@@ -9919,13 +9668,9 @@
         <v>15</v>
       </c>
       <c r="E134" s="19">
-        <v>40</v>
-      </c>
-      <c r="F134" s="20">
-        <v>5</v>
-      </c>
-      <c r="G134" s="19">
-        <f>ROUND((E134/10)^0.5*20,0)*5</f>
+        <v>200</v>
+      </c>
+      <c r="F134" s="19">
         <v>200</v>
       </c>
       <c r="I134" s="25"/>
@@ -9942,12 +9687,9 @@
         <v>1</v>
       </c>
       <c r="E135" s="19">
-        <v>45</v>
-      </c>
-      <c r="F135" s="20">
-        <v>5</v>
-      </c>
-      <c r="G135" s="19">
+        <v>225</v>
+      </c>
+      <c r="F135" s="19">
         <v>202</v>
       </c>
       <c r="I135" s="25"/>
@@ -9964,12 +9706,9 @@
         <v>2</v>
       </c>
       <c r="E136" s="19">
-        <v>45</v>
-      </c>
-      <c r="F136" s="20">
-        <v>5</v>
-      </c>
-      <c r="G136" s="19">
+        <v>225</v>
+      </c>
+      <c r="F136" s="19">
         <v>203</v>
       </c>
       <c r="I136" s="25"/>
@@ -9986,12 +9725,9 @@
         <v>3</v>
       </c>
       <c r="E137" s="19">
-        <v>45</v>
-      </c>
-      <c r="F137" s="20">
-        <v>5</v>
-      </c>
-      <c r="G137" s="19">
+        <v>225</v>
+      </c>
+      <c r="F137" s="19">
         <v>205</v>
       </c>
       <c r="I137" s="25"/>
@@ -10008,12 +9744,9 @@
         <v>4</v>
       </c>
       <c r="E138" s="19">
-        <v>45</v>
-      </c>
-      <c r="F138" s="20">
-        <v>5</v>
-      </c>
-      <c r="G138" s="19">
+        <v>225</v>
+      </c>
+      <c r="F138" s="19">
         <v>206</v>
       </c>
       <c r="I138" s="25"/>
@@ -10030,12 +9763,9 @@
         <v>5</v>
       </c>
       <c r="E139" s="19">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="F139" s="20">
-        <v>5</v>
-      </c>
-      <c r="G139" s="20">
         <v>207</v>
       </c>
       <c r="I139" s="25"/>
@@ -10052,12 +9782,9 @@
         <v>6</v>
       </c>
       <c r="E140" s="19">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="F140" s="20">
-        <v>5</v>
-      </c>
-      <c r="G140" s="20">
         <v>208</v>
       </c>
       <c r="I140" s="25"/>
@@ -10074,13 +9801,9 @@
         <v>7</v>
       </c>
       <c r="E141" s="19">
-        <v>45</v>
-      </c>
-      <c r="F141" s="20">
-        <v>5</v>
-      </c>
-      <c r="G141" s="19">
-        <f>ROUND((E141/10)^0.5*20,0)*5</f>
+        <v>225</v>
+      </c>
+      <c r="F141" s="19">
         <v>210</v>
       </c>
       <c r="I141" s="25"/>
@@ -10097,12 +9820,9 @@
         <v>8</v>
       </c>
       <c r="E142" s="19">
-        <v>50</v>
-      </c>
-      <c r="F142" s="20">
-        <v>5</v>
-      </c>
-      <c r="G142" s="19">
+        <v>250</v>
+      </c>
+      <c r="F142" s="19">
         <v>212</v>
       </c>
       <c r="I142" s="25"/>
@@ -10119,12 +9839,9 @@
         <v>9</v>
       </c>
       <c r="E143" s="19">
-        <v>50</v>
-      </c>
-      <c r="F143" s="20">
-        <v>5</v>
-      </c>
-      <c r="G143" s="19">
+        <v>250</v>
+      </c>
+      <c r="F143" s="19">
         <v>214</v>
       </c>
       <c r="I143" s="25"/>
@@ -10141,12 +9858,9 @@
         <v>10</v>
       </c>
       <c r="E144" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F144" s="20">
-        <v>5</v>
-      </c>
-      <c r="G144" s="20">
         <v>216</v>
       </c>
       <c r="I144" s="25"/>
@@ -10163,12 +9877,9 @@
         <v>11</v>
       </c>
       <c r="E145" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F145" s="20">
-        <v>5</v>
-      </c>
-      <c r="G145" s="20">
         <v>218</v>
       </c>
       <c r="I145" s="25"/>
@@ -10185,12 +9896,9 @@
         <v>12</v>
       </c>
       <c r="E146" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F146" s="20">
-        <v>5</v>
-      </c>
-      <c r="G146" s="20">
         <v>220</v>
       </c>
       <c r="I146" s="25"/>
@@ -10207,12 +9915,9 @@
         <v>13</v>
       </c>
       <c r="E147" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F147" s="20">
-        <v>5</v>
-      </c>
-      <c r="G147" s="20">
         <v>222</v>
       </c>
       <c r="I147" s="25"/>
@@ -10229,12 +9934,9 @@
         <v>14</v>
       </c>
       <c r="E148" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F148" s="20">
-        <v>5</v>
-      </c>
-      <c r="G148" s="20">
         <v>224</v>
       </c>
       <c r="I148" s="25"/>
@@ -10251,13 +9953,9 @@
         <v>15</v>
       </c>
       <c r="E149" s="19">
-        <v>50</v>
-      </c>
-      <c r="F149" s="20">
-        <v>5</v>
-      </c>
-      <c r="G149" s="19">
-        <f>ROUND((E149/10)^0.5*20,0)*5</f>
+        <v>250</v>
+      </c>
+      <c r="F149" s="19">
         <v>225</v>
       </c>
       <c r="I149" s="25"/>
@@ -10274,12 +9972,9 @@
         <v>1</v>
       </c>
       <c r="E150" s="19">
-        <v>55</v>
-      </c>
-      <c r="F150" s="20">
-        <v>5</v>
-      </c>
-      <c r="G150" s="19">
+        <v>275</v>
+      </c>
+      <c r="F150" s="19">
         <v>227</v>
       </c>
       <c r="I150" s="25"/>
@@ -10296,12 +9991,9 @@
         <v>2</v>
       </c>
       <c r="E151" s="19">
-        <v>55</v>
-      </c>
-      <c r="F151" s="20">
-        <v>5</v>
-      </c>
-      <c r="G151" s="19">
+        <v>275</v>
+      </c>
+      <c r="F151" s="19">
         <v>229</v>
       </c>
       <c r="I151" s="25"/>
@@ -10318,12 +10010,9 @@
         <v>3</v>
       </c>
       <c r="E152" s="19">
-        <v>55</v>
-      </c>
-      <c r="F152" s="20">
-        <v>5</v>
-      </c>
-      <c r="G152" s="19">
+        <v>275</v>
+      </c>
+      <c r="F152" s="19">
         <v>230</v>
       </c>
       <c r="I152" s="25"/>
@@ -10340,12 +10029,9 @@
         <v>4</v>
       </c>
       <c r="E153" s="19">
-        <v>55</v>
-      </c>
-      <c r="F153" s="20">
-        <v>5</v>
-      </c>
-      <c r="G153" s="19">
+        <v>275</v>
+      </c>
+      <c r="F153" s="19">
         <v>231</v>
       </c>
       <c r="I153" s="25"/>
@@ -10362,12 +10048,9 @@
         <v>5</v>
       </c>
       <c r="E154" s="19">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="F154" s="20">
-        <v>5</v>
-      </c>
-      <c r="G154" s="20">
         <v>232</v>
       </c>
       <c r="I154" s="25"/>
@@ -10384,12 +10067,9 @@
         <v>6</v>
       </c>
       <c r="E155" s="19">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="F155" s="20">
-        <v>5</v>
-      </c>
-      <c r="G155" s="20">
         <v>233</v>
       </c>
       <c r="I155" s="25"/>
@@ -10406,13 +10086,9 @@
         <v>7</v>
       </c>
       <c r="E156" s="19">
-        <v>55</v>
-      </c>
-      <c r="F156" s="20">
-        <v>5</v>
-      </c>
-      <c r="G156" s="19">
-        <f>ROUND((E156/10)^0.5*20,0)*5</f>
+        <v>275</v>
+      </c>
+      <c r="F156" s="19">
         <v>235</v>
       </c>
       <c r="I156" s="25"/>
@@ -10429,12 +10105,9 @@
         <v>8</v>
       </c>
       <c r="E157" s="19">
-        <v>60</v>
-      </c>
-      <c r="F157" s="20">
-        <v>5</v>
-      </c>
-      <c r="G157" s="19">
+        <v>300</v>
+      </c>
+      <c r="F157" s="19">
         <v>236</v>
       </c>
       <c r="I157" s="25"/>
@@ -10451,12 +10124,9 @@
         <v>9</v>
       </c>
       <c r="E158" s="19">
-        <v>60</v>
-      </c>
-      <c r="F158" s="20">
-        <v>5</v>
-      </c>
-      <c r="G158" s="19">
+        <v>300</v>
+      </c>
+      <c r="F158" s="19">
         <v>237</v>
       </c>
       <c r="I158" s="25"/>
@@ -10473,12 +10143,9 @@
         <v>10</v>
       </c>
       <c r="E159" s="19">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F159" s="20">
-        <v>5</v>
-      </c>
-      <c r="G159" s="20">
         <v>238</v>
       </c>
       <c r="I159" s="25"/>
@@ -10495,12 +10162,9 @@
         <v>11</v>
       </c>
       <c r="E160" s="19">
-        <v>60</v>
-      </c>
-      <c r="F160" s="20">
-        <v>5</v>
-      </c>
-      <c r="G160" s="19">
+        <v>300</v>
+      </c>
+      <c r="F160" s="19">
         <v>240</v>
       </c>
       <c r="I160" s="25"/>
@@ -10517,12 +10181,9 @@
         <v>12</v>
       </c>
       <c r="E161" s="19">
-        <v>60</v>
-      </c>
-      <c r="F161" s="20">
-        <v>5</v>
-      </c>
-      <c r="G161" s="19">
+        <v>300</v>
+      </c>
+      <c r="F161" s="19">
         <v>241</v>
       </c>
       <c r="I161" s="25"/>
@@ -10539,12 +10200,9 @@
         <v>13</v>
       </c>
       <c r="E162" s="19">
-        <v>60</v>
-      </c>
-      <c r="F162" s="20">
-        <v>5</v>
-      </c>
-      <c r="G162" s="19">
+        <v>300</v>
+      </c>
+      <c r="F162" s="19">
         <v>242</v>
       </c>
       <c r="I162" s="25"/>
@@ -10561,12 +10219,9 @@
         <v>14</v>
       </c>
       <c r="E163" s="19">
-        <v>60</v>
-      </c>
-      <c r="F163" s="20">
-        <v>5</v>
-      </c>
-      <c r="G163" s="19">
+        <v>300</v>
+      </c>
+      <c r="F163" s="19">
         <v>243</v>
       </c>
       <c r="I163" s="25"/>
@@ -10583,13 +10238,9 @@
         <v>15</v>
       </c>
       <c r="E164" s="19">
-        <v>60</v>
-      </c>
-      <c r="F164" s="20">
-        <v>5</v>
-      </c>
-      <c r="G164" s="19">
-        <f>ROUND((E164/10)^0.5*20,0)*5</f>
+        <v>300</v>
+      </c>
+      <c r="F164" s="19">
         <v>245</v>
       </c>
       <c r="I164" s="25"/>
@@ -10606,12 +10257,9 @@
         <v>1</v>
       </c>
       <c r="E165" s="19">
-        <v>65</v>
-      </c>
-      <c r="F165" s="20">
-        <v>5</v>
-      </c>
-      <c r="G165" s="19">
+        <v>325</v>
+      </c>
+      <c r="F165" s="19">
         <v>246</v>
       </c>
       <c r="I165" s="25"/>
@@ -10628,12 +10276,9 @@
         <v>2</v>
       </c>
       <c r="E166" s="19">
-        <v>65</v>
-      </c>
-      <c r="F166" s="20">
-        <v>5</v>
-      </c>
-      <c r="G166" s="19">
+        <v>325</v>
+      </c>
+      <c r="F166" s="19">
         <v>248</v>
       </c>
       <c r="I166" s="25"/>
@@ -10650,12 +10295,9 @@
         <v>3</v>
       </c>
       <c r="E167" s="19">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="F167" s="20">
-        <v>5</v>
-      </c>
-      <c r="G167" s="20">
         <v>250</v>
       </c>
       <c r="I167" s="25"/>
@@ -10672,12 +10314,9 @@
         <v>4</v>
       </c>
       <c r="E168" s="19">
-        <v>65</v>
-      </c>
-      <c r="F168" s="20">
-        <v>5</v>
-      </c>
-      <c r="G168" s="19">
+        <v>325</v>
+      </c>
+      <c r="F168" s="19">
         <v>251</v>
       </c>
       <c r="I168" s="25"/>
@@ -10694,12 +10333,9 @@
         <v>5</v>
       </c>
       <c r="E169" s="19">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="F169" s="20">
-        <v>5</v>
-      </c>
-      <c r="G169" s="20">
         <v>252</v>
       </c>
       <c r="I169" s="25"/>
@@ -10716,12 +10352,9 @@
         <v>6</v>
       </c>
       <c r="E170" s="19">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="F170" s="20">
-        <v>5</v>
-      </c>
-      <c r="G170" s="20">
         <v>253</v>
       </c>
       <c r="I170" s="25"/>
@@ -10738,13 +10371,9 @@
         <v>7</v>
       </c>
       <c r="E171" s="19">
-        <v>65</v>
-      </c>
-      <c r="F171" s="20">
-        <v>5</v>
-      </c>
-      <c r="G171" s="19">
-        <f>ROUND((E171/10)^0.5*20,0)*5</f>
+        <v>325</v>
+      </c>
+      <c r="F171" s="19">
         <v>255</v>
       </c>
       <c r="I171" s="25"/>
@@ -10761,12 +10390,9 @@
         <v>8</v>
       </c>
       <c r="E172" s="19">
-        <v>70</v>
-      </c>
-      <c r="F172" s="20">
-        <v>5</v>
-      </c>
-      <c r="G172" s="19">
+        <v>350</v>
+      </c>
+      <c r="F172" s="19">
         <v>256</v>
       </c>
       <c r="I172" s="25"/>
@@ -10783,12 +10409,9 @@
         <v>9</v>
       </c>
       <c r="E173" s="19">
-        <v>70</v>
-      </c>
-      <c r="F173" s="20">
-        <v>5</v>
-      </c>
-      <c r="G173" s="19">
+        <v>350</v>
+      </c>
+      <c r="F173" s="19">
         <v>257</v>
       </c>
       <c r="I173" s="25"/>
@@ -10805,12 +10428,9 @@
         <v>10</v>
       </c>
       <c r="E174" s="19">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="F174" s="20">
-        <v>5</v>
-      </c>
-      <c r="G174" s="20">
         <v>258</v>
       </c>
       <c r="I174" s="25"/>
@@ -10827,12 +10447,9 @@
         <v>11</v>
       </c>
       <c r="E175" s="19">
-        <v>70</v>
-      </c>
-      <c r="F175" s="20">
-        <v>5</v>
-      </c>
-      <c r="G175" s="19">
+        <v>350</v>
+      </c>
+      <c r="F175" s="19">
         <v>260</v>
       </c>
       <c r="I175" s="25"/>
@@ -10849,12 +10466,9 @@
         <v>12</v>
       </c>
       <c r="E176" s="19">
-        <v>70</v>
-      </c>
-      <c r="F176" s="20">
-        <v>5</v>
-      </c>
-      <c r="G176" s="19">
+        <v>350</v>
+      </c>
+      <c r="F176" s="19">
         <v>261</v>
       </c>
       <c r="I176" s="25"/>
@@ -10871,12 +10485,9 @@
         <v>13</v>
       </c>
       <c r="E177" s="19">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="F177" s="20">
-        <v>5</v>
-      </c>
-      <c r="G177" s="20">
         <v>262</v>
       </c>
       <c r="I177" s="25"/>
@@ -10893,12 +10504,9 @@
         <v>14</v>
       </c>
       <c r="E178" s="19">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="F178" s="20">
-        <v>5</v>
-      </c>
-      <c r="G178" s="20">
         <v>263</v>
       </c>
       <c r="I178" s="25"/>
@@ -10915,13 +10523,9 @@
         <v>15</v>
       </c>
       <c r="E179" s="19">
-        <v>70</v>
-      </c>
-      <c r="F179" s="20">
-        <v>5</v>
-      </c>
-      <c r="G179" s="19">
-        <f>ROUND((E179/10)^0.5*20,0)*5</f>
+        <v>350</v>
+      </c>
+      <c r="F179" s="19">
         <v>265</v>
       </c>
       <c r="I179" s="25"/>
@@ -10938,12 +10542,9 @@
         <v>1</v>
       </c>
       <c r="E180" s="19">
-        <v>75</v>
-      </c>
-      <c r="F180" s="20">
-        <v>5</v>
-      </c>
-      <c r="G180" s="19">
+        <v>375</v>
+      </c>
+      <c r="F180" s="19">
         <v>266</v>
       </c>
       <c r="I180" s="25"/>
@@ -10960,12 +10561,9 @@
         <v>2</v>
       </c>
       <c r="E181" s="19">
-        <v>75</v>
-      </c>
-      <c r="F181" s="20">
-        <v>5</v>
-      </c>
-      <c r="G181" s="19">
+        <v>375</v>
+      </c>
+      <c r="F181" s="19">
         <v>268</v>
       </c>
       <c r="I181" s="25"/>
@@ -10982,12 +10580,9 @@
         <v>3</v>
       </c>
       <c r="E182" s="19">
-        <v>75</v>
-      </c>
-      <c r="F182" s="20">
-        <v>5</v>
-      </c>
-      <c r="G182" s="19">
+        <v>375</v>
+      </c>
+      <c r="F182" s="19">
         <v>270</v>
       </c>
       <c r="I182" s="25"/>
@@ -11004,12 +10599,9 @@
         <v>4</v>
       </c>
       <c r="E183" s="19">
-        <v>75</v>
-      </c>
-      <c r="F183" s="20">
-        <v>5</v>
-      </c>
-      <c r="G183" s="19">
+        <v>375</v>
+      </c>
+      <c r="F183" s="19">
         <v>271</v>
       </c>
       <c r="I183" s="25"/>
@@ -11026,12 +10618,9 @@
         <v>5</v>
       </c>
       <c r="E184" s="19">
-        <v>75</v>
-      </c>
-      <c r="F184" s="20">
-        <v>5</v>
-      </c>
-      <c r="G184" s="19">
+        <v>375</v>
+      </c>
+      <c r="F184" s="19">
         <v>272</v>
       </c>
       <c r="I184" s="25"/>
@@ -11048,12 +10637,9 @@
         <v>6</v>
       </c>
       <c r="E185" s="19">
-        <v>75</v>
-      </c>
-      <c r="F185" s="20">
-        <v>5</v>
-      </c>
-      <c r="G185" s="19">
+        <v>375</v>
+      </c>
+      <c r="F185" s="19">
         <v>273</v>
       </c>
       <c r="I185" s="25"/>
@@ -11070,13 +10656,9 @@
         <v>7</v>
       </c>
       <c r="E186" s="19">
-        <v>75</v>
-      </c>
-      <c r="F186" s="20">
-        <v>5</v>
-      </c>
-      <c r="G186" s="19">
-        <f>ROUND((E186/10)^0.5*20,0)*5</f>
+        <v>375</v>
+      </c>
+      <c r="F186" s="19">
         <v>275</v>
       </c>
       <c r="I186" s="25"/>
@@ -11093,12 +10675,9 @@
         <v>8</v>
       </c>
       <c r="E187" s="19">
-        <v>80</v>
-      </c>
-      <c r="F187" s="20">
-        <v>5</v>
-      </c>
-      <c r="G187" s="19">
+        <v>400</v>
+      </c>
+      <c r="F187" s="19">
         <v>276</v>
       </c>
       <c r="I187" s="25"/>
@@ -11115,12 +10694,9 @@
         <v>9</v>
       </c>
       <c r="E188" s="19">
-        <v>80</v>
-      </c>
-      <c r="F188" s="20">
-        <v>5</v>
-      </c>
-      <c r="G188" s="19">
+        <v>400</v>
+      </c>
+      <c r="F188" s="19">
         <v>277</v>
       </c>
       <c r="I188" s="25"/>
@@ -11137,12 +10713,9 @@
         <v>10</v>
       </c>
       <c r="E189" s="19">
-        <v>80</v>
-      </c>
-      <c r="F189" s="20">
-        <v>5</v>
-      </c>
-      <c r="G189" s="19">
+        <v>400</v>
+      </c>
+      <c r="F189" s="19">
         <v>278</v>
       </c>
       <c r="I189" s="25"/>
@@ -11159,12 +10732,9 @@
         <v>11</v>
       </c>
       <c r="E190" s="19">
-        <v>80</v>
-      </c>
-      <c r="F190" s="20">
-        <v>5</v>
-      </c>
-      <c r="G190" s="19">
+        <v>400</v>
+      </c>
+      <c r="F190" s="19">
         <v>280</v>
       </c>
       <c r="I190" s="25"/>
@@ -11181,12 +10751,9 @@
         <v>12</v>
       </c>
       <c r="E191" s="19">
-        <v>80</v>
-      </c>
-      <c r="F191" s="20">
-        <v>5</v>
-      </c>
-      <c r="G191" s="19">
+        <v>400</v>
+      </c>
+      <c r="F191" s="19">
         <v>281</v>
       </c>
       <c r="I191" s="25"/>
@@ -11203,12 +10770,9 @@
         <v>13</v>
       </c>
       <c r="E192" s="19">
-        <v>80</v>
-      </c>
-      <c r="F192" s="20">
-        <v>5</v>
-      </c>
-      <c r="G192" s="19">
+        <v>400</v>
+      </c>
+      <c r="F192" s="19">
         <v>282</v>
       </c>
       <c r="I192" s="25"/>
@@ -11225,12 +10789,9 @@
         <v>14</v>
       </c>
       <c r="E193" s="19">
-        <v>80</v>
-      </c>
-      <c r="F193" s="20">
-        <v>5</v>
-      </c>
-      <c r="G193" s="19">
+        <v>400</v>
+      </c>
+      <c r="F193" s="19">
         <v>283</v>
       </c>
       <c r="I193" s="25"/>
@@ -11247,13 +10808,9 @@
         <v>15</v>
       </c>
       <c r="E194" s="19">
-        <v>80</v>
-      </c>
-      <c r="F194" s="20">
-        <v>5</v>
-      </c>
-      <c r="G194" s="19">
-        <f>ROUND((E194/10)^0.5*20,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="F194" s="19">
         <v>285</v>
       </c>
       <c r="I194" s="25"/>
@@ -11270,12 +10827,9 @@
         <v>1</v>
       </c>
       <c r="E195" s="19">
-        <v>85</v>
-      </c>
-      <c r="F195" s="20">
-        <v>5</v>
-      </c>
-      <c r="G195" s="19">
+        <v>425</v>
+      </c>
+      <c r="F195" s="19">
         <v>286</v>
       </c>
       <c r="I195" s="25"/>
@@ -11292,12 +10846,9 @@
         <v>2</v>
       </c>
       <c r="E196" s="19">
-        <v>85</v>
-      </c>
-      <c r="F196" s="20">
-        <v>5</v>
-      </c>
-      <c r="G196" s="19">
+        <v>425</v>
+      </c>
+      <c r="F196" s="19">
         <v>287</v>
       </c>
       <c r="I196" s="25"/>
@@ -11314,12 +10865,9 @@
         <v>3</v>
       </c>
       <c r="E197" s="19">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="F197" s="20">
-        <v>5</v>
-      </c>
-      <c r="G197" s="20">
         <v>288</v>
       </c>
       <c r="I197" s="25"/>
@@ -11336,12 +10884,9 @@
         <v>4</v>
       </c>
       <c r="E198" s="19">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="F198" s="20">
-        <v>5</v>
-      </c>
-      <c r="G198" s="20">
         <v>289</v>
       </c>
       <c r="I198" s="25"/>
@@ -11358,12 +10903,9 @@
         <v>5</v>
       </c>
       <c r="E199" s="19">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="F199" s="20">
-        <v>5</v>
-      </c>
-      <c r="G199" s="20">
         <v>290</v>
       </c>
       <c r="I199" s="25"/>
@@ -11380,12 +10922,9 @@
         <v>6</v>
       </c>
       <c r="E200" s="19">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="F200" s="20">
-        <v>5</v>
-      </c>
-      <c r="G200" s="20">
         <v>291</v>
       </c>
       <c r="I200" s="25"/>
@@ -11402,12 +10941,9 @@
         <v>7</v>
       </c>
       <c r="E201" s="19">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="F201" s="20">
-        <v>5</v>
-      </c>
-      <c r="G201" s="20">
         <v>292</v>
       </c>
       <c r="I201" s="25"/>
@@ -11424,12 +10960,9 @@
         <v>8</v>
       </c>
       <c r="E202" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F202" s="20">
-        <v>5</v>
-      </c>
-      <c r="G202" s="20">
         <v>293</v>
       </c>
       <c r="I202" s="25"/>
@@ -11446,12 +10979,9 @@
         <v>9</v>
       </c>
       <c r="E203" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F203" s="20">
-        <v>5</v>
-      </c>
-      <c r="G203" s="20">
         <v>294</v>
       </c>
       <c r="I203" s="25"/>
@@ -11468,12 +10998,9 @@
         <v>10</v>
       </c>
       <c r="E204" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F204" s="20">
-        <v>5</v>
-      </c>
-      <c r="G204" s="20">
         <v>295</v>
       </c>
       <c r="I204" s="25"/>
@@ -11490,12 +11017,9 @@
         <v>11</v>
       </c>
       <c r="E205" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F205" s="20">
-        <v>5</v>
-      </c>
-      <c r="G205" s="20">
         <v>296</v>
       </c>
       <c r="I205" s="25"/>
@@ -11512,12 +11036,9 @@
         <v>12</v>
       </c>
       <c r="E206" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F206" s="20">
-        <v>5</v>
-      </c>
-      <c r="G206" s="20">
         <v>297</v>
       </c>
       <c r="I206" s="25"/>
@@ -11534,12 +11055,9 @@
         <v>13</v>
       </c>
       <c r="E207" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F207" s="20">
-        <v>5</v>
-      </c>
-      <c r="G207" s="20">
         <v>298</v>
       </c>
       <c r="I207" s="25"/>
@@ -11556,12 +11074,9 @@
         <v>14</v>
       </c>
       <c r="E208" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F208" s="20">
-        <v>5</v>
-      </c>
-      <c r="G208" s="20">
         <v>299</v>
       </c>
       <c r="I208" s="25"/>
@@ -11578,19 +11093,16 @@
         <v>15</v>
       </c>
       <c r="E209" s="19">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="F209" s="20">
-        <v>5</v>
-      </c>
-      <c r="G209" s="20">
         <v>300</v>
       </c>
       <c r="I209" s="25"/>
       <c r="J209" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="J22:J29"/>
     <mergeCell ref="I22:I29"/>
     <mergeCell ref="I3:I6"/>
@@ -11599,6 +11111,12 @@
     <mergeCell ref="J7:J14"/>
     <mergeCell ref="J15:J21"/>
     <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="J37:J44"/>
+    <mergeCell ref="I45:I51"/>
+    <mergeCell ref="J45:J51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11611,7 +11129,7 @@
   <dimension ref="A3:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11622,18 +11140,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="F3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -17149,8 +16667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BQ105"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BK16" sqref="BK16"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6:AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17160,58 +16678,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="I3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="47" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="Q3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="Q3" s="47" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="Y3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="Y3" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AG3" s="67" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AG3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="57"/>
+      <c r="AJ3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="68"/>
-      <c r="AJ3" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="68"/>
-      <c r="AM3" s="67" t="s">
+      <c r="AK3" s="57"/>
+      <c r="AM3" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="57"/>
+      <c r="AP3" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AP3" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ3" s="68"/>
-      <c r="BD3" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE3" s="69"/>
+      <c r="AQ3" s="57"/>
+      <c r="BD3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE3" s="55"/>
       <c r="BF3" s="16">
         <f>SUM(AV6:AW105)</f>
         <v>61000</v>
@@ -17225,16 +16743,16 @@
         <v>66</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>65</v>
@@ -17243,16 +16761,16 @@
         <v>66</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>65</v>
@@ -17261,16 +16779,16 @@
         <v>66</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>65</v>
@@ -17279,64 +16797,64 @@
         <v>66</v>
       </c>
       <c r="AA4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="AG4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AJ4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AJ4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT4" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="AU4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA4" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="AV4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA4" s="26" t="s">
+      <c r="BB4" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="BB4" s="26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:69" ht="17.25" x14ac:dyDescent="0.2">
@@ -17456,25 +16974,25 @@
         <v>1</v>
       </c>
       <c r="BF5" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BG5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BH5" s="12" t="s">
+      <c r="BI5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="BI5" s="12" t="s">
+      <c r="BJ5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="BJ5" s="12" t="s">
+      <c r="BK5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BK5" s="12" t="s">
+      <c r="BL5" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="BL5" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
@@ -17615,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="BE6" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BF6" s="25">
         <v>1</v>
@@ -17777,7 +17295,7 @@
         <v>2</v>
       </c>
       <c r="BE7" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BF7" s="25">
         <v>1</v>
@@ -17939,7 +17457,7 @@
         <v>3</v>
       </c>
       <c r="BE8" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BF8" s="25">
         <v>2</v>
@@ -18101,21 +17619,21 @@
         <v>3</v>
       </c>
       <c r="BE9" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BF9" s="16">
         <f>SUMPRODUCT(BF6:BL6,BF8:BL8)</f>
         <v>119</v>
       </c>
       <c r="BG9" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BH9" s="25">
         <f>SUMPRODUCT(BF7:BL7,BF8:BL8)</f>
         <v>119</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BJ9" s="25">
         <f>SUMPRODUCT(BF7:BI7,BF8:BI8)</f>
@@ -18400,13 +17918,13 @@
         <v>4</v>
       </c>
       <c r="BF11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BG11" s="12" t="s">
+      <c r="BH11" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="BH11" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
@@ -18556,7 +18074,7 @@
         <v>0.7</v>
       </c>
       <c r="BP12" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BQ12" s="22">
         <v>0.5</v>
@@ -18700,7 +18218,7 @@
         <v>4</v>
       </c>
       <c r="BP13" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BQ13" s="16">
         <f>BF3*BH12</f>
@@ -18845,14 +18363,14 @@
         <v>7</v>
       </c>
       <c r="BE14" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BF14" s="16">
         <f>BF3*BF12</f>
         <v>0</v>
       </c>
       <c r="BP14" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BQ14" s="25">
         <f>ROUND(BQ13/BJ9/BQ15/BQ12,0)</f>
@@ -18997,7 +18515,7 @@
         <v>7</v>
       </c>
       <c r="BP15" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BQ15" s="25">
         <f>SUM(BQ19:BQ43)</f>
@@ -19142,10 +18660,10 @@
         <v>7</v>
       </c>
       <c r="BE16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF16" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="BF16" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
@@ -19437,37 +18955,37 @@
         <v>45</v>
       </c>
       <c r="BF18" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BG18" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH18" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BI18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BJ18" s="12" t="s">
+      <c r="BK18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="BK18" s="12" t="s">
+      <c r="BL18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="BL18" s="12" t="s">
+      <c r="BM18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BM18" s="12" t="s">
+      <c r="BN18" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="BN18" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="BP18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ18" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="BQ18" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
@@ -32825,34 +32343,34 @@
         <v>40</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -32869,19 +32387,19 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="25">
         <v>1</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="25">
         <v>10</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -32898,19 +32416,19 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="25">
         <v>1</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" s="25">
         <v>10</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -32927,19 +32445,19 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="25">
         <v>2</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="25">
         <v>20</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -32956,19 +32474,19 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="25">
         <v>1</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="25">
         <v>10</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -32985,19 +32503,19 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="25">
         <v>10</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33014,19 +32532,19 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="25">
         <v>2</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="25">
         <v>20</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33043,19 +32561,19 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="25">
         <v>4</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="25">
         <v>30</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33072,19 +32590,19 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="25">
         <v>10</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33101,19 +32619,19 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="25">
         <v>10</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33130,19 +32648,19 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="25">
         <v>1</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="25">
         <v>10</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33159,19 +32677,19 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="25">
         <v>2</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" s="25">
         <v>20</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33188,19 +32706,19 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="25">
         <v>2</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J15" s="25">
         <v>20</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33217,19 +32735,19 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="25">
         <v>4</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" s="25">
         <v>30</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33246,19 +32764,19 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="25">
         <v>7</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="25">
         <v>50</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33275,19 +32793,19 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="25">
         <v>7</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="25">
         <v>100</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33304,19 +32822,19 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="25">
         <v>2</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="25">
         <v>20</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33333,19 +32851,19 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="25">
         <v>2</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="25">
         <v>20</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33362,19 +32880,19 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="25">
         <v>2</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="25">
         <v>20</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33391,19 +32909,19 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="25">
         <v>4</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="25">
         <v>30</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33420,19 +32938,19 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="25">
         <v>7</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="25">
         <v>50</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33449,19 +32967,19 @@
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="25">
         <v>4</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" s="25">
         <v>30</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33478,19 +32996,19 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="25">
         <v>10</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="25">
         <v>100</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33507,19 +33025,19 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="25">
         <v>7</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J26" s="25">
         <v>50</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33536,19 +33054,19 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="25">
         <v>7</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="25">
         <v>100</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33565,19 +33083,19 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="25">
         <v>4</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28" s="25">
         <v>30</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33594,19 +33112,19 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="25">
         <v>4</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="25">
         <v>30</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33623,19 +33141,19 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="25">
         <v>4</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="25">
         <v>30</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33652,19 +33170,19 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="25">
         <v>7</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="25">
         <v>50</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33681,19 +33199,19 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="25">
         <v>10</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="25">
         <v>100</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33710,19 +33228,19 @@
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="25">
         <v>7</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33" s="25">
         <v>50</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33739,19 +33257,19 @@
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H34" s="25">
         <v>7</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="25">
         <v>50</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33768,19 +33286,19 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="25">
         <v>7</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" s="25">
         <v>50</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33797,19 +33315,19 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="25">
         <v>10</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J36" s="25">
         <v>100</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33826,19 +33344,19 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="25">
         <v>10</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" s="25">
         <v>100</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -33855,19 +33373,19 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="25">
         <v>10</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="25">
         <v>100</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -33881,7 +33399,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33920,13 +33438,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -33934,7 +33452,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -33949,7 +33467,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -33964,7 +33482,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -33979,7 +33497,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="20">
         <v>1</v>
@@ -33994,7 +33512,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="20">
         <v>1</v>
@@ -34009,7 +33527,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -34024,7 +33542,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -34039,7 +33557,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
@@ -34054,7 +33572,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -34069,7 +33587,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="20">
         <v>1</v>
@@ -34084,7 +33602,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -34099,7 +33617,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="20">
         <v>2</v>
@@ -34114,7 +33632,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="20">
         <v>1</v>
@@ -34129,7 +33647,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="20">
         <v>3</v>
@@ -34159,7 +33677,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="20">
         <v>2</v>
